--- a/secteur-action-publique/services-publics-et-territoires/regions/barometre-resultats-services-publics-et-territoires-regions-synthese.xlsx
+++ b/secteur-action-publique/services-publics-et-territoires/regions/barometre-resultats-services-publics-et-territoires-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="158">
   <si>
     <t>mesure</t>
   </si>
@@ -171,6 +171,12 @@
     <t>409.0</t>
   </si>
   <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>51.0</t>
+  </si>
+  <si>
     <t>% de réseaux</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>392.0</t>
   </si>
   <si>
+    <t>53.0</t>
+  </si>
+  <si>
     <t>03</t>
   </si>
   <si>
@@ -231,12 +240,12 @@
     <t>65.0</t>
   </si>
   <si>
-    <t>53.0</t>
-  </si>
-  <si>
     <t>442.0</t>
   </si>
   <si>
+    <t>60.0</t>
+  </si>
+  <si>
     <t>04</t>
   </si>
   <si>
@@ -282,6 +291,9 @@
     <t>300.0</t>
   </si>
   <si>
+    <t>33.0</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
@@ -345,9 +357,6 @@
     <t>210.0</t>
   </si>
   <si>
-    <t>33.0</t>
-  </si>
-  <si>
     <t>28</t>
   </si>
   <si>
@@ -432,9 +441,6 @@
     <t>Nouvelle-Aquitaine</t>
   </si>
   <si>
-    <t>100.0</t>
-  </si>
-  <si>
     <t>106.0</t>
   </si>
   <si>
@@ -475,9 +481,6 @@
   </si>
   <si>
     <t>Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>51.0</t>
   </si>
   <si>
     <t>25.0</t>
@@ -1002,8 +1005,17 @@
       <c r="K4" t="s">
         <v>45</v>
       </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" t="s">
+        <v>36</v>
+      </c>
       <c r="O4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1077,28 +1089,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -1115,13 +1127,13 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
@@ -1133,13 +1145,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -1219,28 +1231,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" t="s">
         <v>120</v>
-      </c>
-      <c r="E2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" t="s">
-        <v>117</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -1257,13 +1269,13 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
@@ -1275,13 +1287,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -1361,28 +1373,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -1399,13 +1411,13 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
@@ -1417,13 +1429,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -1503,28 +1515,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -1541,13 +1553,13 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
@@ -1559,13 +1571,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M3" t="s">
         <v>97</v>
-      </c>
-      <c r="L3" t="s">
-        <v>130</v>
-      </c>
-      <c r="M3" t="s">
-        <v>93</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -1645,28 +1657,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -1683,13 +1695,13 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
@@ -1701,13 +1713,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M3" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -1787,28 +1799,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -1825,13 +1837,13 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
@@ -1843,13 +1855,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -1929,28 +1941,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -1967,13 +1979,13 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
@@ -1985,13 +1997,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -2071,28 +2083,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -2109,13 +2121,13 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
@@ -2127,13 +2139,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -2213,28 +2225,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -2251,13 +2263,13 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
@@ -2269,13 +2281,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -2355,13 +2367,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2373,10 +2385,10 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -2393,13 +2405,13 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
@@ -2411,13 +2423,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -2437,31 +2449,40 @@
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
         <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" t="s">
+        <v>36</v>
       </c>
       <c r="O4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2535,28 +2556,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -2573,10 +2594,10 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -2594,10 +2615,10 @@
         <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -2617,31 +2638,40 @@
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
         <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" t="s">
+        <v>36</v>
       </c>
       <c r="O4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2715,13 +2745,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2733,7 +2763,7 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -2753,10 +2783,10 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -2774,10 +2804,10 @@
         <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -2797,31 +2827,40 @@
         <v>40</v>
       </c>
       <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" t="s">
         <v>68</v>
-      </c>
-      <c r="E4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" t="s">
-        <v>65</v>
       </c>
       <c r="G4" t="s">
         <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" t="s">
+        <v>36</v>
       </c>
       <c r="O4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2895,22 +2934,22 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s">
         <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s">
         <v>32</v>
@@ -2930,13 +2969,13 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
@@ -2948,13 +2987,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -2974,31 +3013,40 @@
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s">
         <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" t="s">
+        <v>36</v>
       </c>
       <c r="O4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3072,28 +3120,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -3110,13 +3158,13 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
@@ -3128,13 +3176,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -3214,10 +3262,10 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -3226,16 +3274,16 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -3252,13 +3300,13 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
@@ -3270,13 +3318,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -3356,10 +3404,10 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -3368,16 +3416,16 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -3394,13 +3442,13 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
@@ -3412,13 +3460,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M3" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -3498,13 +3546,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3516,10 +3564,10 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -3536,13 +3584,13 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
@@ -3554,13 +3602,13 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>

--- a/secteur-action-publique/services-publics-et-territoires/regions/barometre-resultats-services-publics-et-territoires-regions-synthese.xlsx
+++ b/secteur-action-publique/services-publics-et-territoires/regions/barometre-resultats-services-publics-et-territoires-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="208">
   <si>
     <t>mesure</t>
   </si>
@@ -81,7 +81,7 @@
     <t>Améliorer la qualité du service rendu à l’usager</t>
   </si>
   <si>
-    <t>Part des lieux d’accueil du public qui publient leurs résultats</t>
+    <t>Part des lieux d’accueil du public qui publient leurs résultats (national et local)</t>
   </si>
   <si>
     <t>tx-transparence-resultats</t>
@@ -132,466 +132,529 @@
     <t>taux-deploiement-fibre</t>
   </si>
   <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>% de déploiement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Déployer une offre France Services dans tous les territoires </t>
+  </si>
+  <si>
+    <t>Nombre de labellisations (atteinte de l'objectif fixé)</t>
+  </si>
+  <si>
+    <t>nb-labellisations-france-services</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>2021-07-31</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>2017-01-01</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>labellisations</t>
+  </si>
+  <si>
+    <t>Redynamiser les cœurs de ville</t>
+  </si>
+  <si>
+    <t>Nombre de logements rénovés dans les petites villes (- de 20 000 habitants)</t>
+  </si>
+  <si>
+    <t>nb-logements-renoves-petites-villes</t>
+  </si>
+  <si>
+    <t>2021-05-31</t>
+  </si>
+  <si>
+    <t>logements rénovés</t>
+  </si>
+  <si>
+    <t>Nombre de logements ayant bénéficié d'un accompagnement (réhabilitation ou subvention)</t>
+  </si>
+  <si>
+    <t>nb-logement-accompagnement</t>
+  </si>
+  <si>
+    <t>291.0</t>
+  </si>
+  <si>
+    <t>logements</t>
+  </si>
+  <si>
+    <t>Nombre de logements rénovés dans les villes moyennes (+ de 20 000 habitants)</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>77.0</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>1000.0</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>229.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>442.0</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>1183.0</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>256.0</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>48.0</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>1050.0</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t>85.0</t>
+  </si>
+  <si>
+    <t>53.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>286.0</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>1260.0</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>91.0</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>47.0</t>
+  </si>
+  <si>
+    <t>96.0</t>
+  </si>
+  <si>
+    <t>130.0</t>
+  </si>
+  <si>
+    <t>74.0</t>
+  </si>
+  <si>
+    <t>132.0</t>
+  </si>
+  <si>
+    <t>5592.0</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>57.0</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>200.0</t>
+  </si>
+  <si>
+    <t>88.0</t>
+  </si>
+  <si>
+    <t>136.0</t>
+  </si>
+  <si>
+    <t>65.0</t>
+  </si>
+  <si>
+    <t>400.0</t>
+  </si>
+  <si>
+    <t>2494.0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>124.0</t>
+  </si>
+  <si>
+    <t>210.0</t>
+  </si>
+  <si>
+    <t>59.0</t>
+  </si>
+  <si>
+    <t>404.0</t>
+  </si>
+  <si>
+    <t>2920.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>33.0</t>
+  </si>
+  <si>
+    <t>165.0</t>
+  </si>
+  <si>
+    <t>107.0</t>
+  </si>
+  <si>
+    <t>164.0</t>
+  </si>
+  <si>
+    <t>683.0</t>
+  </si>
+  <si>
+    <t>3026.0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>82.0</t>
+  </si>
+  <si>
     <t>22.0</t>
   </si>
   <si>
-    <t>2020-12-31</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>69.0</t>
-  </si>
-  <si>
-    <t>% de déploiement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Déployer une offre France Services dans tous les territoires </t>
-  </si>
-  <si>
-    <t>Nombre de labellisations (atteinte de l'objectif fixé)</t>
-  </si>
-  <si>
-    <t>nb-labellisations-france-services</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>2021-04-30</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>2017-01-01</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>26.0</t>
-  </si>
-  <si>
-    <t>labellisations</t>
-  </si>
-  <si>
-    <t>Redynamiser les cœurs de ville</t>
-  </si>
-  <si>
-    <t>Nombre de logements ayant bénéficié d'un accompagnement (réhabilitation ou subvention)</t>
-  </si>
-  <si>
-    <t>nb-logement-accompagnement</t>
-  </si>
-  <si>
-    <t>291.0</t>
-  </si>
-  <si>
-    <t>2021-03-31</t>
-  </si>
-  <si>
-    <t>logements</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>77.0</t>
-  </si>
-  <si>
-    <t>70.0</t>
-  </si>
-  <si>
-    <t>1000.0</t>
-  </si>
-  <si>
-    <t>75.0</t>
+    <t>273.0</t>
+  </si>
+  <si>
+    <t>176.0</t>
+  </si>
+  <si>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>401.0</t>
+  </si>
+  <si>
+    <t>6647.0</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
   </si>
   <si>
     <t>21.0</t>
   </si>
   <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>200.0</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>86.0</t>
-  </si>
-  <si>
-    <t>434.0</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Guyane</t>
-  </si>
-  <si>
-    <t>1183.0</t>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>195.0</t>
+  </si>
+  <si>
+    <t>135.0</t>
+  </si>
+  <si>
+    <t>241.0</t>
+  </si>
+  <si>
+    <t>56.0</t>
+  </si>
+  <si>
+    <t>730.0</t>
+  </si>
+  <si>
+    <t>4687.0</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>189.0</t>
+  </si>
+  <si>
+    <t>121.0</t>
+  </si>
+  <si>
+    <t>55.0</t>
+  </si>
+  <si>
+    <t>1076.0</t>
+  </si>
+  <si>
+    <t>2771.0</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>128.0</t>
+  </si>
+  <si>
+    <t>64.0</t>
+  </si>
+  <si>
+    <t>125.0</t>
+  </si>
+  <si>
+    <t>51.0</t>
+  </si>
+  <si>
+    <t>891.0</t>
+  </si>
+  <si>
+    <t>3208.0</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>167.0</t>
+  </si>
+  <si>
+    <t>192.0</t>
+  </si>
+  <si>
+    <t>320.0</t>
+  </si>
+  <si>
+    <t>972.0</t>
+  </si>
+  <si>
+    <t>6140.0</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>37.0</t>
+  </si>
+  <si>
+    <t>312.0</t>
+  </si>
+  <si>
+    <t>1340.0</t>
+  </si>
+  <si>
+    <t>6714.0</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>58.0</t>
   </si>
   <si>
     <t>27.0</t>
   </si>
   <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>39.0</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>La Réunion</t>
-  </si>
-  <si>
-    <t>63.0</t>
-  </si>
-  <si>
-    <t>1050.0</t>
-  </si>
-  <si>
-    <t>67.0</t>
-  </si>
-  <si>
-    <t>84.0</t>
-  </si>
-  <si>
-    <t>54.0</t>
-  </si>
-  <si>
-    <t>30.0</t>
-  </si>
-  <si>
-    <t>56.0</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>34.0</t>
-  </si>
-  <si>
-    <t>32.0</t>
-  </si>
-  <si>
-    <t>286.0</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>68.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>1260.0</t>
-  </si>
-  <si>
-    <t>66.0</t>
-  </si>
-  <si>
-    <t>2017-03-31</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>89.0</t>
-  </si>
-  <si>
-    <t>62.0</t>
-  </si>
-  <si>
-    <t>44.0</t>
-  </si>
-  <si>
-    <t>85.0</t>
-  </si>
-  <si>
-    <t>130.0</t>
-  </si>
-  <si>
-    <t>65.0</t>
-  </si>
-  <si>
-    <t>5373.0</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>53.0</t>
-  </si>
-  <si>
-    <t>19.0</t>
-  </si>
-  <si>
-    <t>179.0</t>
-  </si>
-  <si>
-    <t>136.0</t>
-  </si>
-  <si>
-    <t>57.0</t>
-  </si>
-  <si>
-    <t>2381.0</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
     <t>115.0</t>
   </si>
   <si>
-    <t>210.0</t>
-  </si>
-  <si>
-    <t>55.0</t>
-  </si>
-  <si>
-    <t>2815.0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
+    <t>169.0</t>
+  </si>
+  <si>
+    <t>318.0</t>
+  </si>
+  <si>
+    <t>980.0</t>
+  </si>
+  <si>
+    <t>6087.0</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>154.0</t>
+  </si>
+  <si>
+    <t>109.0</t>
+  </si>
+  <si>
+    <t>144.0</t>
+  </si>
+  <si>
+    <t>284.0</t>
+  </si>
+  <si>
+    <t>1978.0</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Corse</t>
+  </si>
+  <si>
+    <t>43.0</t>
+  </si>
+  <si>
+    <t>17.0</t>
   </si>
   <si>
     <t>50.0</t>
   </si>
   <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>150.0</t>
-  </si>
-  <si>
-    <t>99.0</t>
-  </si>
-  <si>
-    <t>164.0</t>
-  </si>
-  <si>
-    <t>60.0</t>
-  </si>
-  <si>
-    <t>2963.0</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>255.0</t>
-  </si>
-  <si>
-    <t>81.0</t>
-  </si>
-  <si>
-    <t>176.0</t>
-  </si>
-  <si>
-    <t>46.0</t>
-  </si>
-  <si>
-    <t>6029.0</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>36.0</t>
-  </si>
-  <si>
-    <t>171.0</t>
-  </si>
-  <si>
-    <t>117.0</t>
-  </si>
-  <si>
-    <t>241.0</t>
-  </si>
-  <si>
-    <t>49.0</t>
-  </si>
-  <si>
-    <t>4416.0</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>172.0</t>
-  </si>
-  <si>
-    <t>121.0</t>
-  </si>
-  <si>
-    <t>45.0</t>
-  </si>
-  <si>
-    <t>2661.0</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>125.0</t>
-  </si>
-  <si>
-    <t>42.0</t>
-  </si>
-  <si>
-    <t>3121.0</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>144.0</t>
-  </si>
-  <si>
-    <t>159.0</t>
-  </si>
-  <si>
-    <t>320.0</t>
-  </si>
-  <si>
-    <t>5827.0</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Occitanie</t>
-  </si>
-  <si>
-    <t>51.0</t>
-  </si>
-  <si>
-    <t>168.0</t>
-  </si>
-  <si>
-    <t>312.0</t>
-  </si>
-  <si>
-    <t>6451.0</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Auvergne-Rhône-Alpes</t>
-  </si>
-  <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>104.0</t>
-  </si>
-  <si>
-    <t>142.0</t>
-  </si>
-  <si>
-    <t>318.0</t>
-  </si>
-  <si>
-    <t>5885.0</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>61.0</t>
-  </si>
-  <si>
-    <t>35.0</t>
-  </si>
-  <si>
-    <t>135.0</t>
-  </si>
-  <si>
-    <t>91.0</t>
-  </si>
-  <si>
-    <t>1944.0</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>Corse</t>
-  </si>
-  <si>
-    <t>40.0</t>
-  </si>
-  <si>
-    <t>24.0</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>665.0</t>
+    <t>678.0</t>
   </si>
 </sst>
 </file>
@@ -923,7 +986,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1052,24 +1115,24 @@
         <v>23</v>
       </c>
       <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
         <v>36</v>
-      </c>
-      <c r="K3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -1078,42 +1141,42 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
         <v>43</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" t="s">
         <v>44</v>
       </c>
-      <c r="I4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" t="s">
-        <v>46</v>
-      </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1122,19 +1185,77 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
         <v>52</v>
       </c>
-      <c r="G5" t="s">
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
         <v>53</v>
       </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="O5" t="s">
-        <v>54</v>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1144,7 +1265,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1208,107 +1329,165 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
         <v>43</v>
       </c>
-      <c r="H3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
       <c r="J3" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="L3" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="M3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
+      <c r="O4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
         <v>51</v>
       </c>
-      <c r="D4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" t="s">
-        <v>135</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>144</v>
+      </c>
+      <c r="O5" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>144</v>
+      </c>
+      <c r="O6" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1318,7 +1497,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1382,107 +1561,165 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="K2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
         <v>43</v>
       </c>
-      <c r="H3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
       <c r="J3" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="L3" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="M3" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
+      <c r="O4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
         <v>51</v>
       </c>
-      <c r="D4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" t="s">
-        <v>143</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>154</v>
+      </c>
+      <c r="O5" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>154</v>
+      </c>
+      <c r="O6" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1492,7 +1729,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1556,10 +1793,10 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="F2" t="s">
         <v>142</v>
@@ -1568,95 +1805,153 @@
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="K2" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
         <v>43</v>
       </c>
-      <c r="H3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
       <c r="J3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="M3" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
+      <c r="O4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
         <v>51</v>
       </c>
-      <c r="D4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" t="s">
-        <v>149</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>162</v>
+      </c>
+      <c r="O5" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>162</v>
+      </c>
+      <c r="O6" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1666,7 +1961,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1730,107 +2025,165 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
         <v>43</v>
       </c>
-      <c r="H3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
       <c r="J3" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="L3" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="M3" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
+      <c r="O4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
         <v>51</v>
       </c>
-      <c r="D4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" t="s">
-        <v>154</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>170</v>
+      </c>
+      <c r="O5" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>170</v>
+      </c>
+      <c r="O6" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1840,7 +2193,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1904,107 +2257,165 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="K2" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
         <v>43</v>
       </c>
-      <c r="H3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
       <c r="J3" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="L3" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="M3" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
+      <c r="O4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
         <v>51</v>
       </c>
-      <c r="D4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" t="s">
-        <v>160</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>178</v>
+      </c>
+      <c r="O5" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>178</v>
+      </c>
+      <c r="O6" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2014,7 +2425,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2078,13 +2489,13 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="F2" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
@@ -2096,89 +2507,147 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>86</v>
+        <v>181</v>
       </c>
       <c r="K2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
         <v>43</v>
       </c>
-      <c r="H3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
       <c r="J3" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="L3" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="M3" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
+      <c r="O4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
         <v>51</v>
       </c>
-      <c r="D4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F4" t="s">
-        <v>166</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" t="s">
-        <v>166</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O5" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>184</v>
+      </c>
+      <c r="O6" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2188,7 +2657,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2252,107 +2721,165 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>187</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>188</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
         <v>43</v>
       </c>
-      <c r="H3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
       <c r="J3" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="L3" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="M3" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
+      <c r="O4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
         <v>51</v>
       </c>
-      <c r="D4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F4" t="s">
-        <v>173</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" t="s">
-        <v>173</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O5" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>193</v>
+      </c>
+      <c r="O6" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2362,7 +2889,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2426,107 +2953,165 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="F2" t="s">
-        <v>176</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="K2" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
         <v>43</v>
       </c>
-      <c r="H3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
       <c r="J3" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="L3" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="M3" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
+      <c r="O4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
         <v>51</v>
       </c>
-      <c r="D4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E4" t="s">
-        <v>175</v>
-      </c>
-      <c r="F4" t="s">
-        <v>180</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" t="s">
-        <v>180</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>201</v>
+      </c>
+      <c r="O5" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>201</v>
+      </c>
+      <c r="O6" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2536,7 +3121,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2600,107 +3185,165 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="E2" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="F2" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K2" t="s">
-        <v>124</v>
+        <v>190</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
         <v>43</v>
       </c>
-      <c r="H3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
       <c r="J3" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="L3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s">
-        <v>122</v>
+        <v>206</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
+      <c r="O4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
         <v>51</v>
       </c>
-      <c r="D4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E4" t="s">
-        <v>182</v>
-      </c>
-      <c r="F4" t="s">
-        <v>186</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" t="s">
-        <v>186</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>207</v>
+      </c>
+      <c r="O5" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>207</v>
+      </c>
+      <c r="O6" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2710,7 +3353,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2774,13 +3417,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2792,16 +3435,16 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -2821,13 +3464,13 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
         <v>34</v>
@@ -2839,89 +3482,147 @@
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
         <v>43</v>
       </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>45</v>
-      </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
         <v>66</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="O5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2931,7 +3632,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2995,19 +3696,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -3016,7 +3717,7 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -3042,107 +3743,165 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
         <v>43</v>
       </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>45</v>
-      </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="L4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
         <v>49</v>
       </c>
-      <c r="B5" t="s">
+      <c r="O5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
         <v>51</v>
       </c>
-      <c r="D5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
         <v>68</v>
       </c>
-      <c r="F5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" t="s">
-        <v>74</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3152,7 +3911,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3216,34 +3975,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -3263,107 +4022,165 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="K3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
         <v>43</v>
       </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>45</v>
-      </c>
       <c r="J4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="L4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M4" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
         <v>49</v>
       </c>
-      <c r="B5" t="s">
+      <c r="O5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
         <v>51</v>
       </c>
-      <c r="D5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" t="s">
         <v>87</v>
       </c>
-      <c r="G5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
         <v>87</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O6" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3373,7 +4190,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3455,7 +4272,7 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s">
         <v>92</v>
@@ -3490,33 +4307,33 @@
         <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
         <v>94</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>88</v>
@@ -3525,42 +4342,42 @@
         <v>89</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
         <v>43</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="s">
         <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L4" t="s">
-        <v>95</v>
-      </c>
-      <c r="M4" t="s">
-        <v>96</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
         <v>88</v>
@@ -3569,19 +4386,77 @@
         <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="O5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3591,7 +4466,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3655,107 +4530,165 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" t="s">
         <v>97</v>
-      </c>
-      <c r="E2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" t="s">
-        <v>99</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="K2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L3" t="s">
         <v>102</v>
       </c>
-      <c r="G3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" t="s">
-        <v>102</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>103</v>
-      </c>
-      <c r="M3" t="s">
-        <v>104</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
+      <c r="O4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
         <v>51</v>
       </c>
-      <c r="D4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" t="s">
         <v>105</v>
       </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
         <v>105</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O5" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O6" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3765,7 +4698,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3847,24 +4780,24 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="K2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
         <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -3873,42 +4806,42 @@
         <v>107</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
         <v>43</v>
       </c>
-      <c r="H3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="L3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
         <v>106</v>
@@ -3917,19 +4850,77 @@
         <v>107</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="O4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O5" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>116</v>
+      </c>
+      <c r="O6" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3939,7 +4930,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4003,107 +4994,165 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="K2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
         <v>43</v>
       </c>
-      <c r="H3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
       <c r="J3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="L3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
+      <c r="O4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
         <v>51</v>
       </c>
-      <c r="D4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" t="s">
-        <v>119</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>126</v>
+      </c>
+      <c r="O5" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>126</v>
+      </c>
+      <c r="O6" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -4113,7 +5162,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4177,107 +5226,165 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="K2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
         <v>43</v>
       </c>
-      <c r="H3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
       <c r="J3" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="L3" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="M3" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
+      <c r="O4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
         <v>51</v>
       </c>
-      <c r="D4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" t="s">
         <v>128</v>
       </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="F5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>135</v>
+      </c>
+      <c r="O5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" t="s">
         <v>128</v>
       </c>
-      <c r="O4" t="s">
-        <v>54</v>
+      <c r="F6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>135</v>
+      </c>
+      <c r="O6" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/services-publics-et-territoires/regions/barometre-resultats-services-publics-et-territoires-regions-synthese.xlsx
+++ b/secteur-action-publique/services-publics-et-territoires/regions/barometre-resultats-services-publics-et-territoires-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="217">
   <si>
     <t>mesure</t>
   </si>
@@ -132,529 +132,556 @@
     <t>taux-deploiement-fibre</t>
   </si>
   <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>131.0</t>
+  </si>
+  <si>
+    <t>% de déploiement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Déployer une offre France Services dans tous les territoires </t>
+  </si>
+  <si>
+    <t>Nombre de labellisations (atteinte de l'objectif fixé)</t>
+  </si>
+  <si>
+    <t>nb-labellisations-france-services</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>2017-01-01</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>labellisations</t>
+  </si>
+  <si>
+    <t>Redynamiser les cœurs de ville</t>
+  </si>
+  <si>
+    <t>Nombre de logements rénovés dans les petites villes (- de 20 000 habitants)</t>
+  </si>
+  <si>
+    <t>nb-logements-renoves-petites-villes</t>
+  </si>
+  <si>
+    <t>2021-11-30</t>
+  </si>
+  <si>
+    <t>logements rénovés depuis octobre 2020</t>
+  </si>
+  <si>
+    <t>Nombre de logements ayant bénéficié d'un accompagnement (réhabilitation ou subvention)</t>
+  </si>
+  <si>
+    <t>nb-logement-accompagnement</t>
+  </si>
+  <si>
+    <t>291.0</t>
+  </si>
+  <si>
+    <t>logements</t>
+  </si>
+  <si>
+    <t>Nombre de logements rénovés dans les villes moyennes (+ de 20 000 habitants)</t>
+  </si>
+  <si>
+    <t>logements rénovés</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>77.0</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>1000.0</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>300.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>443.0</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>1183.0</t>
+  </si>
+  <si>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>356.0</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>1050.0</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t>88.0</t>
+  </si>
+  <si>
+    <t>53.0</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>286.0</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>1260.0</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>91.0</t>
+  </si>
+  <si>
+    <t>47.0</t>
+  </si>
+  <si>
+    <t>114.0</t>
+  </si>
+  <si>
+    <t>154.0</t>
+  </si>
+  <si>
+    <t>74.0</t>
+  </si>
+  <si>
+    <t>222.0</t>
+  </si>
+  <si>
+    <t>6727.0</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>43.0</t>
+  </si>
+  <si>
+    <t>226.0</t>
+  </si>
+  <si>
+    <t>98.0</t>
+  </si>
+  <si>
+    <t>138.0</t>
+  </si>
+  <si>
+    <t>718.0</t>
+  </si>
+  <si>
+    <t>2870.0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>33.0</t>
+  </si>
+  <si>
+    <t>236.0</t>
+  </si>
+  <si>
+    <t>146.0</t>
+  </si>
+  <si>
+    <t>211.0</t>
+  </si>
+  <si>
+    <t>674.0</t>
+  </si>
+  <si>
+    <t>3174.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>59.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>39.0</t>
+  </si>
+  <si>
+    <t>195.0</t>
+  </si>
+  <si>
+    <t>123.0</t>
+  </si>
+  <si>
+    <t>164.0</t>
+  </si>
+  <si>
+    <t>1281.0</t>
+  </si>
+  <si>
+    <t>3244.0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>86.0</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>64.0</t>
+  </si>
+  <si>
+    <t>111.0</t>
+  </si>
+  <si>
+    <t>176.0</t>
+  </si>
+  <si>
+    <t>722.0</t>
+  </si>
+  <si>
+    <t>7085.0</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>233.0</t>
+  </si>
+  <si>
+    <t>150.0</t>
+  </si>
+  <si>
+    <t>242.0</t>
+  </si>
+  <si>
+    <t>1246.0</t>
+  </si>
+  <si>
+    <t>5050.0</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>228.0</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>115.0</t>
+  </si>
+  <si>
+    <t>1820.0</t>
+  </si>
+  <si>
+    <t>3021.0</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>139.0</t>
+  </si>
+  <si>
+    <t>125.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>1318.0</t>
+  </si>
+  <si>
+    <t>3520.0</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>55.0</t>
+  </si>
+  <si>
+    <t>37.0</t>
+  </si>
+  <si>
+    <t>206.0</t>
+  </si>
+  <si>
+    <t>230.0</t>
+  </si>
+  <si>
+    <t>309.0</t>
+  </si>
+  <si>
+    <t>1735.0</t>
+  </si>
+  <si>
+    <t>6617.0</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>237.0</t>
+  </si>
+  <si>
+    <t>220.0</t>
+  </si>
+  <si>
+    <t>312.0</t>
+  </si>
+  <si>
+    <t>2338.0</t>
+  </si>
+  <si>
+    <t>7566.0</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>61.0</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>126.0</t>
+  </si>
+  <si>
+    <t>196.0</t>
+  </si>
+  <si>
+    <t>314.0</t>
+  </si>
+  <si>
+    <t>1874.0</t>
+  </si>
+  <si>
+    <t>6601.0</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
     <t>26.0</t>
   </si>
   <si>
-    <t>2021-03-31</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>% de déploiement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Déployer une offre France Services dans tous les territoires </t>
-  </si>
-  <si>
-    <t>Nombre de labellisations (atteinte de l'objectif fixé)</t>
-  </si>
-  <si>
-    <t>nb-labellisations-france-services</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>2021-07-31</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>2017-01-01</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>labellisations</t>
-  </si>
-  <si>
-    <t>Redynamiser les cœurs de ville</t>
-  </si>
-  <si>
-    <t>Nombre de logements rénovés dans les petites villes (- de 20 000 habitants)</t>
-  </si>
-  <si>
-    <t>nb-logements-renoves-petites-villes</t>
-  </si>
-  <si>
-    <t>2021-05-31</t>
-  </si>
-  <si>
-    <t>logements rénovés</t>
-  </si>
-  <si>
-    <t>Nombre de logements ayant bénéficié d'un accompagnement (réhabilitation ou subvention)</t>
-  </si>
-  <si>
-    <t>nb-logement-accompagnement</t>
-  </si>
-  <si>
-    <t>291.0</t>
-  </si>
-  <si>
-    <t>logements</t>
-  </si>
-  <si>
-    <t>Nombre de logements rénovés dans les villes moyennes (+ de 20 000 habitants)</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>77.0</t>
-  </si>
-  <si>
-    <t>70.0</t>
-  </si>
-  <si>
-    <t>1000.0</t>
-  </si>
-  <si>
-    <t>75.0</t>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>169.0</t>
+  </si>
+  <si>
+    <t>122.0</t>
+  </si>
+  <si>
+    <t>143.0</t>
+  </si>
+  <si>
+    <t>85.0</t>
+  </si>
+  <si>
+    <t>752.0</t>
+  </si>
+  <si>
+    <t>2405.0</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Corse</t>
+  </si>
+  <si>
+    <t>194.0</t>
   </si>
   <si>
     <t>23.0</t>
   </si>
   <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>229.0</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>442.0</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Guyane</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>1183.0</t>
-  </si>
-  <si>
-    <t>32.0</t>
-  </si>
-  <si>
-    <t>256.0</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>48.0</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>La Réunion</t>
-  </si>
-  <si>
-    <t>69.0</t>
-  </si>
-  <si>
-    <t>63.0</t>
-  </si>
-  <si>
-    <t>1050.0</t>
-  </si>
-  <si>
-    <t>67.0</t>
-  </si>
-  <si>
-    <t>85.0</t>
-  </si>
-  <si>
-    <t>53.0</t>
-  </si>
-  <si>
-    <t>60.0</t>
-  </si>
-  <si>
-    <t>34.0</t>
-  </si>
-  <si>
-    <t>286.0</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>68.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>1260.0</t>
-  </si>
-  <si>
-    <t>66.0</t>
-  </si>
-  <si>
-    <t>2017-03-31</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>91.0</t>
-  </si>
-  <si>
-    <t>62.0</t>
-  </si>
-  <si>
-    <t>29.0</t>
-  </si>
-  <si>
-    <t>47.0</t>
-  </si>
-  <si>
-    <t>96.0</t>
-  </si>
-  <si>
-    <t>130.0</t>
-  </si>
-  <si>
-    <t>74.0</t>
-  </si>
-  <si>
-    <t>132.0</t>
-  </si>
-  <si>
-    <t>5592.0</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>57.0</t>
-  </si>
-  <si>
-    <t>19.0</t>
-  </si>
-  <si>
-    <t>38.0</t>
-  </si>
-  <si>
-    <t>200.0</t>
-  </si>
-  <si>
-    <t>88.0</t>
-  </si>
-  <si>
-    <t>136.0</t>
-  </si>
-  <si>
-    <t>65.0</t>
-  </si>
-  <si>
-    <t>400.0</t>
-  </si>
-  <si>
-    <t>2494.0</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>42.0</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>124.0</t>
-  </si>
-  <si>
-    <t>210.0</t>
-  </si>
-  <si>
-    <t>59.0</t>
-  </si>
-  <si>
-    <t>404.0</t>
-  </si>
-  <si>
-    <t>2920.0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>33.0</t>
-  </si>
-  <si>
-    <t>165.0</t>
-  </si>
-  <si>
-    <t>107.0</t>
-  </si>
-  <si>
-    <t>164.0</t>
-  </si>
-  <si>
-    <t>683.0</t>
-  </si>
-  <si>
-    <t>3026.0</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>82.0</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>273.0</t>
-  </si>
-  <si>
-    <t>176.0</t>
-  </si>
-  <si>
-    <t>52.0</t>
-  </si>
-  <si>
-    <t>401.0</t>
-  </si>
-  <si>
-    <t>6647.0</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>41.0</t>
-  </si>
-  <si>
-    <t>195.0</t>
-  </si>
-  <si>
-    <t>135.0</t>
-  </si>
-  <si>
-    <t>241.0</t>
-  </si>
-  <si>
-    <t>56.0</t>
-  </si>
-  <si>
-    <t>730.0</t>
-  </si>
-  <si>
-    <t>4687.0</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>189.0</t>
-  </si>
-  <si>
-    <t>121.0</t>
-  </si>
-  <si>
-    <t>55.0</t>
-  </si>
-  <si>
-    <t>1076.0</t>
-  </si>
-  <si>
-    <t>2771.0</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>128.0</t>
-  </si>
-  <si>
-    <t>64.0</t>
-  </si>
-  <si>
-    <t>125.0</t>
-  </si>
-  <si>
-    <t>51.0</t>
-  </si>
-  <si>
-    <t>891.0</t>
-  </si>
-  <si>
-    <t>3208.0</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>30.0</t>
-  </si>
-  <si>
-    <t>167.0</t>
-  </si>
-  <si>
-    <t>192.0</t>
-  </si>
-  <si>
-    <t>320.0</t>
-  </si>
-  <si>
-    <t>972.0</t>
-  </si>
-  <si>
-    <t>6140.0</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Occitanie</t>
-  </si>
-  <si>
-    <t>37.0</t>
-  </si>
-  <si>
-    <t>312.0</t>
-  </si>
-  <si>
-    <t>1340.0</t>
-  </si>
-  <si>
-    <t>6714.0</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Auvergne-Rhône-Alpes</t>
-  </si>
-  <si>
-    <t>58.0</t>
-  </si>
-  <si>
-    <t>27.0</t>
-  </si>
-  <si>
-    <t>115.0</t>
-  </si>
-  <si>
-    <t>169.0</t>
-  </si>
-  <si>
-    <t>318.0</t>
-  </si>
-  <si>
-    <t>980.0</t>
-  </si>
-  <si>
-    <t>6087.0</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>40.0</t>
-  </si>
-  <si>
-    <t>154.0</t>
-  </si>
-  <si>
-    <t>109.0</t>
-  </si>
-  <si>
-    <t>144.0</t>
-  </si>
-  <si>
-    <t>284.0</t>
-  </si>
-  <si>
-    <t>1978.0</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>Corse</t>
-  </si>
-  <si>
-    <t>43.0</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>50.0</t>
-  </si>
-  <si>
-    <t>678.0</t>
+    <t>118.0</t>
+  </si>
+  <si>
+    <t>701.0</t>
   </si>
 </sst>
 </file>
@@ -1115,24 +1142,24 @@
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -1141,42 +1168,42 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" t="s">
         <v>42</v>
       </c>
-      <c r="I4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" t="s">
-        <v>40</v>
-      </c>
       <c r="L4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M4" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1185,24 +1212,24 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -1211,30 +1238,30 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
         <v>55</v>
-      </c>
-      <c r="C7" t="s">
-        <v>52</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -1243,19 +1270,19 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O7" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1329,165 +1356,165 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="K2" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="L3" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="M3" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F4" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F5" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
         <v>55</v>
       </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="O6" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1561,165 +1588,165 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="K2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F3" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="L3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="M3" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E4" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F5" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
         <v>55</v>
       </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E6" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="O6" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1793,165 +1820,165 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="L3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="M3" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F5" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
         <v>55</v>
       </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
       <c r="D6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="O6" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2025,165 +2052,165 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F2" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>169</v>
       </c>
       <c r="K2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F3" t="s">
-        <v>166</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>166</v>
+        <v>65</v>
       </c>
       <c r="L3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F5" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
         <v>55</v>
       </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
       <c r="D6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F6" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="O6" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2257,165 +2284,165 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F3" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="L3" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="M3" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F4" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F5" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
         <v>55</v>
       </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E6" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F6" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="O6" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2489,165 +2516,165 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="K2" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F3" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="L3" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="M3" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E4" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F4" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E5" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F5" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
         <v>55</v>
       </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
       <c r="D6" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E6" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F6" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="O6" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2721,165 +2748,165 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="K2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E3" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F3" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="L3" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="M3" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E4" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F4" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E5" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F5" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
         <v>55</v>
       </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
       <c r="D6" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E6" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F6" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="O6" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2953,165 +2980,165 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="K2" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F3" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="L3" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="M3" t="s">
-        <v>27</v>
+        <v>208</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F4" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E5" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F5" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
         <v>55</v>
       </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
       <c r="D6" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E6" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F6" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="O6" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3185,165 +3212,165 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="E2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F2" t="s">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>188</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="E3" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F3" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="L3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M3" t="s">
-        <v>206</v>
+        <v>98</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="E5" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F5" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
         <v>55</v>
       </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
       <c r="D6" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="E6" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F6" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="O6" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3417,13 +3444,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3435,16 +3462,16 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -3464,13 +3491,13 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
         <v>34</v>
@@ -3482,45 +3509,45 @@
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
@@ -3532,97 +3559,97 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" t="s">
         <v>57</v>
-      </c>
-      <c r="F6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" t="s">
-        <v>67</v>
-      </c>
-      <c r="O6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" t="s">
-        <v>52</v>
-      </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="O7" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3696,19 +3723,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -3717,7 +3744,7 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -3743,165 +3770,165 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" t="s">
-        <v>52</v>
-      </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O7" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3975,34 +4002,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -4022,165 +4049,165 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M4" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" t="s">
-        <v>52</v>
-      </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="O7" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -4254,34 +4281,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -4301,162 +4328,174 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="M4" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" t="s">
-        <v>52</v>
-      </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" t="s">
+        <v>28</v>
       </c>
       <c r="O7" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -4530,165 +4569,165 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="L3" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M3" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F4" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
         <v>55</v>
       </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="O6" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -4762,165 +4801,165 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="K2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="L3" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="M3" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F4" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
         <v>55</v>
       </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F6" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="O6" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -4994,165 +5033,165 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="K2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="M3" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F5" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
         <v>55</v>
       </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F6" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="O6" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -5226,165 +5265,165 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="K2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L3" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="M3" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
         <v>55</v>
       </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="O6" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/services-publics-et-territoires/regions/barometre-resultats-services-publics-et-territoires-regions-synthese.xlsx
+++ b/secteur-action-publique/services-publics-et-territoires/regions/barometre-resultats-services-publics-et-territoires-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="255">
   <si>
     <t>mesure</t>
   </si>
@@ -159,346 +159,421 @@
     <t>nb-labellisations-france-services</t>
   </si>
   <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>2020-01-31</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>48.0</t>
+  </si>
+  <si>
+    <t>labellisations</t>
+  </si>
+  <si>
+    <t>Redynamiser les cœurs de ville</t>
+  </si>
+  <si>
+    <t>Nombre de logements rénovés dans les petites villes (- de 20 000 habitants)</t>
+  </si>
+  <si>
+    <t>nb-logements-renoves-petites-villes</t>
+  </si>
+  <si>
+    <t>2021-11-30</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>logements rénovés</t>
+  </si>
+  <si>
+    <t>Nombre de logements ayant bénéficié d'un accompagnement (réhabilitation ou subvention)</t>
+  </si>
+  <si>
+    <t>nb-logement-accompagnement</t>
+  </si>
+  <si>
+    <t>549.0</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>logements</t>
+  </si>
+  <si>
+    <t>Nombre de logements rénovés dans les villes moyennes (+ de 20 000 habitants)</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>77.0</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>1000.0</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>300.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>200.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>774.0</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>1183.0</t>
+  </si>
+  <si>
+    <t>41.0</t>
+  </si>
+  <si>
     <t>9.0</t>
   </si>
   <si>
-    <t>2021-12-31</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>2017-01-01</t>
-  </si>
-  <si>
-    <t>31.0</t>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>356.0</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>1050.0</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t>88.0</t>
+  </si>
+  <si>
+    <t>53.0</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>433.0</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>571.0</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>1260.0</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>400.0</t>
+  </si>
+  <si>
+    <t>57.0</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>91.0</t>
+  </si>
+  <si>
+    <t>62.0</t>
   </si>
   <si>
     <t>29.0</t>
   </si>
   <si>
-    <t>labellisations</t>
-  </si>
-  <si>
-    <t>Redynamiser les cœurs de ville</t>
-  </si>
-  <si>
-    <t>Nombre de logements rénovés dans les petites villes (- de 20 000 habitants)</t>
-  </si>
-  <si>
-    <t>nb-logements-renoves-petites-villes</t>
-  </si>
-  <si>
-    <t>2021-11-30</t>
-  </si>
-  <si>
-    <t>logements rénovés depuis octobre 2020</t>
-  </si>
-  <si>
-    <t>Nombre de logements ayant bénéficié d'un accompagnement (réhabilitation ou subvention)</t>
-  </si>
-  <si>
-    <t>nb-logement-accompagnement</t>
+    <t>47.0</t>
+  </si>
+  <si>
+    <t>128.0</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>102.0</t>
+  </si>
+  <si>
+    <t>392.0</t>
+  </si>
+  <si>
+    <t>154.0</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>222.0</t>
+  </si>
+  <si>
+    <t>7455.0</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>43.0</t>
+  </si>
+  <si>
+    <t>226.0</t>
+  </si>
+  <si>
+    <t>117.0</t>
+  </si>
+  <si>
+    <t>96.0</t>
+  </si>
+  <si>
+    <t>457.0</t>
+  </si>
+  <si>
+    <t>138.0</t>
+  </si>
+  <si>
+    <t>82.0</t>
+  </si>
+  <si>
+    <t>718.0</t>
+  </si>
+  <si>
+    <t>3408.0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>33.0</t>
+  </si>
+  <si>
+    <t>236.0</t>
+  </si>
+  <si>
+    <t>175.0</t>
+  </si>
+  <si>
+    <t>146.0</t>
+  </si>
+  <si>
+    <t>503.0</t>
+  </si>
+  <si>
+    <t>211.0</t>
+  </si>
+  <si>
+    <t>674.0</t>
+  </si>
+  <si>
+    <t>3845.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>59.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>39.0</t>
+  </si>
+  <si>
+    <t>195.0</t>
+  </si>
+  <si>
+    <t>95.0</t>
+  </si>
+  <si>
+    <t>221.0</t>
+  </si>
+  <si>
+    <t>164.0</t>
+  </si>
+  <si>
+    <t>79.0</t>
+  </si>
+  <si>
+    <t>1281.0</t>
+  </si>
+  <si>
+    <t>4076.0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>86.0</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>64.0</t>
   </si>
   <si>
     <t>291.0</t>
   </si>
   <si>
-    <t>logements</t>
-  </si>
-  <si>
-    <t>Nombre de logements rénovés dans les villes moyennes (+ de 20 000 habitants)</t>
-  </si>
-  <si>
-    <t>logements rénovés</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>77.0</t>
-  </si>
-  <si>
-    <t>70.0</t>
-  </si>
-  <si>
-    <t>1000.0</t>
-  </si>
-  <si>
-    <t>75.0</t>
-  </si>
-  <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>300.0</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>443.0</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Guyane</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>1183.0</t>
-  </si>
-  <si>
-    <t>41.0</t>
-  </si>
-  <si>
-    <t>32.0</t>
-  </si>
-  <si>
-    <t>356.0</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>52.0</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>La Réunion</t>
-  </si>
-  <si>
-    <t>69.0</t>
-  </si>
-  <si>
-    <t>63.0</t>
-  </si>
-  <si>
-    <t>1050.0</t>
-  </si>
-  <si>
-    <t>67.0</t>
-  </si>
-  <si>
-    <t>88.0</t>
-  </si>
-  <si>
-    <t>53.0</t>
-  </si>
-  <si>
-    <t>35.0</t>
-  </si>
-  <si>
-    <t>66.0</t>
-  </si>
-  <si>
-    <t>34.0</t>
+    <t>142.0</t>
+  </si>
+  <si>
+    <t>111.0</t>
+  </si>
+  <si>
+    <t>358.0</t>
+  </si>
+  <si>
+    <t>176.0</t>
+  </si>
+  <si>
+    <t>722.0</t>
+  </si>
+  <si>
+    <t>9820.0</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>233.0</t>
+  </si>
+  <si>
+    <t>182.0</t>
   </si>
   <si>
     <t>38.0</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>286.0</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>68.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>1260.0</t>
-  </si>
-  <si>
-    <t>2017-03-31</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>62.0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>91.0</t>
-  </si>
-  <si>
-    <t>47.0</t>
-  </si>
-  <si>
-    <t>114.0</t>
-  </si>
-  <si>
-    <t>154.0</t>
-  </si>
-  <si>
-    <t>74.0</t>
-  </si>
-  <si>
-    <t>222.0</t>
-  </si>
-  <si>
-    <t>6727.0</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>19.0</t>
-  </si>
-  <si>
-    <t>43.0</t>
-  </si>
-  <si>
-    <t>226.0</t>
-  </si>
-  <si>
-    <t>98.0</t>
-  </si>
-  <si>
-    <t>138.0</t>
-  </si>
-  <si>
-    <t>718.0</t>
-  </si>
-  <si>
-    <t>2870.0</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>33.0</t>
-  </si>
-  <si>
-    <t>236.0</t>
-  </si>
-  <si>
-    <t>146.0</t>
-  </si>
-  <si>
-    <t>211.0</t>
-  </si>
-  <si>
-    <t>674.0</t>
-  </si>
-  <si>
-    <t>3174.0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>59.0</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>39.0</t>
-  </si>
-  <si>
-    <t>195.0</t>
-  </si>
-  <si>
-    <t>123.0</t>
-  </si>
-  <si>
-    <t>164.0</t>
-  </si>
-  <si>
-    <t>1281.0</t>
-  </si>
-  <si>
-    <t>3244.0</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>86.0</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>64.0</t>
-  </si>
-  <si>
-    <t>111.0</t>
-  </si>
-  <si>
-    <t>176.0</t>
-  </si>
-  <si>
-    <t>722.0</t>
-  </si>
-  <si>
-    <t>7085.0</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>49.0</t>
-  </si>
-  <si>
-    <t>233.0</t>
-  </si>
-  <si>
-    <t>150.0</t>
+    <t>144.0</t>
+  </si>
+  <si>
+    <t>379.0</t>
   </si>
   <si>
     <t>242.0</t>
@@ -507,7 +582,7 @@
     <t>1246.0</t>
   </si>
   <si>
-    <t>5050.0</t>
+    <t>6795.0</t>
   </si>
   <si>
     <t>52</t>
@@ -522,16 +597,28 @@
     <t>228.0</t>
   </si>
   <si>
-    <t>80.0</t>
+    <t>90.0</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>65.0</t>
+  </si>
+  <si>
+    <t>260.0</t>
   </si>
   <si>
     <t>115.0</t>
   </si>
   <si>
+    <t>72.0</t>
+  </si>
+  <si>
     <t>1820.0</t>
   </si>
   <si>
-    <t>3021.0</t>
+    <t>3724.0</t>
   </si>
   <si>
     <t>53</t>
@@ -540,22 +627,22 @@
     <t>Bretagne</t>
   </si>
   <si>
-    <t>25.0</t>
-  </si>
-  <si>
     <t>139.0</t>
   </si>
   <si>
+    <t>89.0</t>
+  </si>
+  <si>
+    <t>324.0</t>
+  </si>
+  <si>
     <t>125.0</t>
   </si>
   <si>
-    <t>60.0</t>
-  </si>
-  <si>
     <t>1318.0</t>
   </si>
   <si>
-    <t>3520.0</t>
+    <t>4354.0</t>
   </si>
   <si>
     <t>75</t>
@@ -573,16 +660,25 @@
     <t>206.0</t>
   </si>
   <si>
-    <t>230.0</t>
+    <t>270.0</t>
+  </si>
+  <si>
+    <t>217.0</t>
+  </si>
+  <si>
+    <t>409.0</t>
   </si>
   <si>
     <t>309.0</t>
   </si>
   <si>
+    <t>85.0</t>
+  </si>
+  <si>
     <t>1735.0</t>
   </si>
   <si>
-    <t>6617.0</t>
+    <t>7600.0</t>
   </si>
   <si>
     <t>76</t>
@@ -597,7 +693,10 @@
     <t>237.0</t>
   </si>
   <si>
-    <t>220.0</t>
+    <t>263.0</t>
+  </si>
+  <si>
+    <t>192.0</t>
   </si>
   <si>
     <t>312.0</t>
@@ -606,7 +705,7 @@
     <t>2338.0</t>
   </si>
   <si>
-    <t>7566.0</t>
+    <t>8918.0</t>
   </si>
   <si>
     <t>84</t>
@@ -624,7 +723,16 @@
     <t>126.0</t>
   </si>
   <si>
-    <t>196.0</t>
+    <t>239.0</t>
+  </si>
+  <si>
+    <t>51.0</t>
+  </si>
+  <si>
+    <t>188.0</t>
+  </si>
+  <si>
+    <t>369.0</t>
   </si>
   <si>
     <t>314.0</t>
@@ -633,7 +741,7 @@
     <t>1874.0</t>
   </si>
   <si>
-    <t>6601.0</t>
+    <t>8281.0</t>
   </si>
   <si>
     <t>93</t>
@@ -642,28 +750,31 @@
     <t>Provence-Alpes-Côte d'Azur</t>
   </si>
   <si>
-    <t>26.0</t>
-  </si>
-  <si>
     <t>44.0</t>
   </si>
   <si>
     <t>169.0</t>
   </si>
   <si>
-    <t>122.0</t>
+    <t>129.0</t>
+  </si>
+  <si>
+    <t>92.0</t>
+  </si>
+  <si>
+    <t>249.0</t>
   </si>
   <si>
     <t>143.0</t>
   </si>
   <si>
-    <t>85.0</t>
+    <t>87.0</t>
   </si>
   <si>
     <t>752.0</t>
   </si>
   <si>
-    <t>2405.0</t>
+    <t>2849.0</t>
   </si>
   <si>
     <t>94</t>
@@ -678,10 +789,13 @@
     <t>23.0</t>
   </si>
   <si>
+    <t>575.0</t>
+  </si>
+  <si>
     <t>118.0</t>
   </si>
   <si>
-    <t>701.0</t>
+    <t>808.0</t>
   </si>
 </sst>
 </file>
@@ -1217,8 +1331,17 @@
       <c r="G5" t="s">
         <v>52</v>
       </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
+      </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1226,10 +1349,10 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -1238,19 +1361,22 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
         <v>44</v>
       </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1258,10 +1384,10 @@
         <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -1270,19 +1396,22 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H7" t="s">
         <v>44</v>
       </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1356,28 +1485,28 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="F2" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>166</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -1394,31 +1523,34 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="F3" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>147</v>
+        <v>168</v>
+      </c>
+      <c r="K3" t="s">
+        <v>169</v>
       </c>
       <c r="L3" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="M3" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -1438,19 +1570,28 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="F4" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
       </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" t="s">
+        <v>171</v>
+      </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1458,31 +1599,34 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="F5" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
         <v>44</v>
       </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
       <c r="J5" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="O5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1490,31 +1634,34 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
       <c r="H6" t="s">
         <v>44</v>
       </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
       <c r="J6" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1588,28 +1735,28 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="K2" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -1626,31 +1773,34 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="F3" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>155</v>
+        <v>179</v>
+      </c>
+      <c r="K3" t="s">
+        <v>180</v>
       </c>
       <c r="L3" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="M3" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -1670,19 +1820,28 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="F4" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
       </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" t="s">
+        <v>182</v>
+      </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1690,31 +1849,34 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E5" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="F5" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
         <v>44</v>
       </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
       <c r="J5" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="O5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1722,31 +1884,34 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E6" t="s">
-        <v>152</v>
-      </c>
-      <c r="F6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
       <c r="H6" t="s">
         <v>44</v>
       </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
       <c r="J6" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1820,28 +1985,28 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -1858,31 +2023,34 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="F3" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>163</v>
+        <v>190</v>
+      </c>
+      <c r="K3" t="s">
+        <v>191</v>
       </c>
       <c r="L3" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="M3" t="s">
-        <v>63</v>
+        <v>193</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -1902,19 +2070,28 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="F4" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
       </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" t="s">
+        <v>194</v>
+      </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1922,31 +2099,34 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="F5" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
         <v>44</v>
       </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
       <c r="J5" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="O5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1954,31 +2134,34 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E6" t="s">
-        <v>160</v>
-      </c>
-      <c r="F6" t="s">
-        <v>166</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
       <c r="H6" t="s">
         <v>44</v>
       </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
       <c r="J6" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2052,28 +2235,28 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="K2" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -2090,31 +2273,34 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="E3" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>199</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
+        <v>105</v>
+      </c>
+      <c r="K3" t="s">
+        <v>200</v>
       </c>
       <c r="L3" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="M3" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -2134,19 +2320,28 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="E4" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="F4" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
       </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" t="s">
+        <v>202</v>
+      </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2154,31 +2349,34 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="E5" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="F5" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
         <v>44</v>
       </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
       <c r="J5" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="O5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2186,31 +2384,34 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E6" t="s">
-        <v>168</v>
-      </c>
-      <c r="F6" t="s">
-        <v>174</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
       <c r="H6" t="s">
         <v>44</v>
       </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
       <c r="J6" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2284,28 +2485,28 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="E2" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="F2" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="K2" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -2322,31 +2523,34 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="E3" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="F3" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>180</v>
+        <v>210</v>
+      </c>
+      <c r="K3" t="s">
+        <v>211</v>
       </c>
       <c r="L3" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="M3" t="s">
-        <v>111</v>
+        <v>213</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -2366,19 +2570,28 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="E4" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="F4" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
       </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" t="s">
+        <v>214</v>
+      </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2386,31 +2599,34 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="E5" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="F5" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
         <v>44</v>
       </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
       <c r="J5" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="O5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2418,31 +2634,34 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" t="s">
+        <v>205</v>
+      </c>
+      <c r="F6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" t="s">
-        <v>175</v>
-      </c>
-      <c r="E6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
       <c r="H6" t="s">
         <v>44</v>
       </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
       <c r="J6" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2516,28 +2735,28 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="E2" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="F2" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="K2" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -2554,31 +2773,34 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="E3" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="F3" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>188</v>
+        <v>221</v>
+      </c>
+      <c r="K3" t="s">
+        <v>209</v>
       </c>
       <c r="L3" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -2598,19 +2820,28 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="E4" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="F4" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
       </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" t="s">
+        <v>223</v>
+      </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2618,31 +2849,34 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="E5" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="F5" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
         <v>44</v>
       </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
       <c r="J5" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="O5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2650,31 +2884,34 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F6" t="s">
+        <v>224</v>
+      </c>
+      <c r="G6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" t="s">
-        <v>184</v>
-      </c>
-      <c r="E6" t="s">
-        <v>185</v>
-      </c>
-      <c r="F6" t="s">
-        <v>191</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
       <c r="H6" t="s">
         <v>44</v>
       </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
       <c r="J6" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2748,28 +2985,28 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="E2" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="F2" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K2" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -2786,31 +3023,34 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="E3" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="F3" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>231</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>197</v>
+        <v>232</v>
+      </c>
+      <c r="K3" t="s">
+        <v>233</v>
       </c>
       <c r="L3" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="M3" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -2830,19 +3070,28 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="E4" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="F4" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
       </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" t="s">
+        <v>235</v>
+      </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2850,31 +3099,34 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="E5" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="F5" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
         <v>44</v>
       </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
       <c r="J5" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="O5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2882,31 +3134,34 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E6" t="s">
-        <v>193</v>
-      </c>
-      <c r="F6" t="s">
-        <v>200</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
       <c r="H6" t="s">
         <v>44</v>
       </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
       <c r="J6" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2980,28 +3235,28 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>203</v>
+        <v>120</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="K2" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -3018,31 +3273,34 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="E3" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="F3" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>207</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>206</v>
+        <v>242</v>
+      </c>
+      <c r="K3" t="s">
+        <v>243</v>
       </c>
       <c r="L3" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="M3" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -3062,19 +3320,28 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="E4" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="F4" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
       </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" t="s">
+        <v>246</v>
+      </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -3082,31 +3349,34 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="E5" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="F5" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
         <v>44</v>
       </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
       <c r="J5" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="O5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -3114,31 +3384,34 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E6" t="s">
-        <v>202</v>
-      </c>
-      <c r="F6" t="s">
-        <v>210</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
       <c r="H6" t="s">
         <v>44</v>
       </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
       <c r="J6" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3212,19 +3485,19 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="E2" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -3233,7 +3506,7 @@
         <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -3250,31 +3523,34 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="E3" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="F3" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>214</v>
+        <v>251</v>
+      </c>
+      <c r="K3" t="s">
+        <v>252</v>
       </c>
       <c r="L3" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="M3" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -3294,19 +3570,28 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="E4" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="F4" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
       </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" t="s">
+        <v>253</v>
+      </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -3314,31 +3599,34 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="E5" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="F5" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
         <v>44</v>
       </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
       <c r="J5" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="O5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -3346,31 +3634,34 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" t="s">
-        <v>211</v>
-      </c>
-      <c r="E6" t="s">
-        <v>212</v>
-      </c>
-      <c r="F6" t="s">
-        <v>216</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
       <c r="H6" t="s">
         <v>44</v>
       </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
       <c r="J6" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3444,13 +3735,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3462,16 +3753,16 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -3491,13 +3782,13 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G3" t="s">
         <v>34</v>
@@ -3509,10 +3800,10 @@
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O3" t="s">
         <v>38</v>
@@ -3529,25 +3820,28 @@
         <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
         <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s">
         <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="K4" t="s">
+        <v>73</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
@@ -3573,19 +3867,28 @@
         <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
         <v>52</v>
       </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -3593,31 +3896,34 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
         <v>44</v>
       </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -3625,31 +3931,34 @@
         <v>49</v>
       </c>
       <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
       <c r="H7" t="s">
         <v>44</v>
       </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
       <c r="J7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3723,19 +4032,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -3744,7 +4053,7 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -3770,28 +4079,28 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O3" t="s">
         <v>38</v>
@@ -3808,31 +4117,34 @@
         <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s">
         <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="I4" t="s">
         <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>79</v>
+        <v>86</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>
@@ -3852,10 +4164,10 @@
         <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
@@ -3863,8 +4175,17 @@
       <c r="G5" t="s">
         <v>52</v>
       </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
+      </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -3872,31 +4193,34 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
         <v>44</v>
       </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -3904,31 +4228,34 @@
         <v>49</v>
       </c>
       <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
       <c r="H7" t="s">
         <v>44</v>
       </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4002,34 +4329,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -4049,28 +4376,28 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G3" t="s">
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="O3" t="s">
         <v>38</v>
@@ -4087,19 +4414,19 @@
         <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="G4" t="s">
         <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s">
         <v>45</v>
@@ -4107,11 +4434,14 @@
       <c r="J4" t="s">
         <v>35</v>
       </c>
+      <c r="K4" t="s">
+        <v>99</v>
+      </c>
       <c r="L4" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>
@@ -4131,19 +4461,28 @@
         <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s">
         <v>52</v>
       </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" t="s">
+        <v>85</v>
+      </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -4151,31 +4490,34 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
         <v>44</v>
       </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
       <c r="J6" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -4183,31 +4525,34 @@
         <v>49</v>
       </c>
       <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
       <c r="H7" t="s">
         <v>44</v>
       </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4281,34 +4626,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -4328,10 +4673,10 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F3" t="s">
         <v>44</v>
@@ -4343,7 +4688,7 @@
         <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J3" t="s">
         <v>44</v>
@@ -4363,31 +4708,34 @@
         <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="G4" t="s">
         <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="I4" t="s">
         <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>102</v>
+        <v>72</v>
+      </c>
+      <c r="K4" t="s">
+        <v>110</v>
       </c>
       <c r="L4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>
@@ -4407,10 +4755,10 @@
         <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
@@ -4418,8 +4766,17 @@
       <c r="G5" t="s">
         <v>52</v>
       </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
+      </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -4427,37 +4784,34 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
         <v>44</v>
       </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
       <c r="J6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -4465,37 +4819,34 @@
         <v>49</v>
       </c>
       <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
       <c r="H7" t="s">
         <v>44</v>
       </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
       <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4569,28 +4920,28 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="K2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -4607,31 +4958,34 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>109</v>
+        <v>121</v>
+      </c>
+      <c r="K3" t="s">
+        <v>122</v>
       </c>
       <c r="L3" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="M3" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -4651,19 +5005,28 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
       </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" t="s">
+        <v>125</v>
+      </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -4671,31 +5034,34 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
         <v>44</v>
       </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
       <c r="J5" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="O5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -4703,31 +5069,34 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
       <c r="H6" t="s">
         <v>44</v>
       </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
       <c r="J6" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4801,28 +5170,28 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="K2" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -4839,31 +5208,34 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>119</v>
+        <v>133</v>
+      </c>
+      <c r="K3" t="s">
+        <v>134</v>
       </c>
       <c r="L3" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -4883,19 +5255,28 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="F4" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
       </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" t="s">
+        <v>137</v>
+      </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -4903,31 +5284,34 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="F5" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
         <v>44</v>
       </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
       <c r="J5" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="O5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -4935,31 +5319,34 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
       <c r="H6" t="s">
         <v>44</v>
       </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
       <c r="J6" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -5033,28 +5420,28 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="K2" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -5071,31 +5458,34 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="F3" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>128</v>
+        <v>144</v>
+      </c>
+      <c r="K3" t="s">
+        <v>145</v>
       </c>
       <c r="L3" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="M3" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -5115,19 +5505,28 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="F4" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
       </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" t="s">
+        <v>147</v>
+      </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -5135,31 +5534,34 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
         <v>44</v>
       </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
       <c r="J5" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="O5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -5167,31 +5569,34 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
       <c r="H6" t="s">
         <v>44</v>
       </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
       <c r="J6" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -5265,28 +5670,28 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="K2" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -5303,31 +5708,34 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="F3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>138</v>
+        <v>155</v>
+      </c>
+      <c r="K3" t="s">
+        <v>156</v>
       </c>
       <c r="L3" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="M3" t="s">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -5347,19 +5755,28 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="F4" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
       </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" t="s">
+        <v>159</v>
+      </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -5367,31 +5784,34 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E5" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="F5" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
         <v>44</v>
       </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
       <c r="J5" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="O5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -5399,31 +5819,34 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6" t="s">
-        <v>141</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
       <c r="H6" t="s">
         <v>44</v>
       </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
       <c r="J6" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/services-publics-et-territoires/regions/barometre-resultats-services-publics-et-territoires-regions-synthese.xlsx
+++ b/secteur-action-publique/services-publics-et-territoires/regions/barometre-resultats-services-publics-et-territoires-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="256">
   <si>
     <t>mesure</t>
   </si>
@@ -351,16 +351,19 @@
     <t>68.0</t>
   </si>
   <si>
-    <t>5.0</t>
+    <t>5</t>
   </si>
   <si>
     <t>1260.0</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>2017-03-31</t>
   </si>
   <si>
-    <t>2.0</t>
+    <t>2</t>
   </si>
   <si>
     <t>400.0</t>
@@ -1485,28 +1488,28 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -1523,13 +1526,13 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
@@ -1541,13 +1544,13 @@
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M3" t="s">
         <v>63</v>
@@ -1570,13 +1573,13 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
@@ -1588,7 +1591,7 @@
         <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O4" t="s">
         <v>54</v>
@@ -1605,13 +1608,13 @@
         <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G5" t="s">
         <v>58</v>
@@ -1623,7 +1626,7 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O5" t="s">
         <v>59</v>
@@ -1640,13 +1643,13 @@
         <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G6" t="s">
         <v>58</v>
@@ -1658,7 +1661,7 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O6" t="s">
         <v>54</v>
@@ -1735,10 +1738,10 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F2" t="s">
         <v>64</v>
@@ -1753,10 +1756,10 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -1773,31 +1776,31 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M3" t="s">
         <v>24</v>
@@ -1820,13 +1823,13 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
@@ -1838,7 +1841,7 @@
         <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O4" t="s">
         <v>54</v>
@@ -1855,13 +1858,13 @@
         <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G5" t="s">
         <v>58</v>
@@ -1873,7 +1876,7 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O5" t="s">
         <v>59</v>
@@ -1890,13 +1893,13 @@
         <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G6" t="s">
         <v>58</v>
@@ -1908,7 +1911,7 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O6" t="s">
         <v>54</v>
@@ -1985,19 +1988,19 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -2006,7 +2009,7 @@
         <v>80</v>
       </c>
       <c r="K2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -2023,34 +2026,34 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -2070,13 +2073,13 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
@@ -2088,7 +2091,7 @@
         <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O4" t="s">
         <v>54</v>
@@ -2105,13 +2108,13 @@
         <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G5" t="s">
         <v>58</v>
@@ -2123,7 +2126,7 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O5" t="s">
         <v>59</v>
@@ -2140,13 +2143,13 @@
         <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G6" t="s">
         <v>58</v>
@@ -2158,7 +2161,7 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O6" t="s">
         <v>54</v>
@@ -2235,28 +2238,28 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -2273,13 +2276,13 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
@@ -2294,13 +2297,13 @@
         <v>105</v>
       </c>
       <c r="K3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -2320,13 +2323,13 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
@@ -2338,7 +2341,7 @@
         <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O4" t="s">
         <v>54</v>
@@ -2355,13 +2358,13 @@
         <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G5" t="s">
         <v>58</v>
@@ -2373,7 +2376,7 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O5" t="s">
         <v>59</v>
@@ -2390,13 +2393,13 @@
         <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G6" t="s">
         <v>58</v>
@@ -2408,7 +2411,7 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O6" t="s">
         <v>54</v>
@@ -2485,28 +2488,28 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -2523,13 +2526,13 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
@@ -2541,16 +2544,16 @@
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -2570,13 +2573,13 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
@@ -2588,7 +2591,7 @@
         <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O4" t="s">
         <v>54</v>
@@ -2605,13 +2608,13 @@
         <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G5" t="s">
         <v>58</v>
@@ -2623,7 +2626,7 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O5" t="s">
         <v>59</v>
@@ -2640,13 +2643,13 @@
         <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G6" t="s">
         <v>58</v>
@@ -2658,7 +2661,7 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O6" t="s">
         <v>54</v>
@@ -2735,28 +2738,28 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -2773,13 +2776,13 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
@@ -2791,16 +2794,16 @@
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -2820,13 +2823,13 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
@@ -2838,7 +2841,7 @@
         <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O4" t="s">
         <v>54</v>
@@ -2855,13 +2858,13 @@
         <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G5" t="s">
         <v>58</v>
@@ -2873,7 +2876,7 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O5" t="s">
         <v>59</v>
@@ -2890,13 +2893,13 @@
         <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G6" t="s">
         <v>58</v>
@@ -2908,7 +2911,7 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O6" t="s">
         <v>54</v>
@@ -2985,19 +2988,19 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -3006,7 +3009,7 @@
         <v>100</v>
       </c>
       <c r="K2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -3023,31 +3026,31 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M3" t="s">
         <v>24</v>
@@ -3070,13 +3073,13 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
@@ -3088,7 +3091,7 @@
         <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O4" t="s">
         <v>54</v>
@@ -3105,13 +3108,13 @@
         <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G5" t="s">
         <v>58</v>
@@ -3123,7 +3126,7 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O5" t="s">
         <v>59</v>
@@ -3140,13 +3143,13 @@
         <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G6" t="s">
         <v>58</v>
@@ -3158,7 +3161,7 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O6" t="s">
         <v>54</v>
@@ -3235,10 +3238,10 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F2" t="s">
         <v>64</v>
@@ -3247,16 +3250,16 @@
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -3273,34 +3276,34 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -3320,13 +3323,13 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
@@ -3338,7 +3341,7 @@
         <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O4" t="s">
         <v>54</v>
@@ -3355,13 +3358,13 @@
         <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G5" t="s">
         <v>58</v>
@@ -3373,7 +3376,7 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O5" t="s">
         <v>59</v>
@@ -3390,13 +3393,13 @@
         <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G6" t="s">
         <v>58</v>
@@ -3408,7 +3411,7 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O6" t="s">
         <v>54</v>
@@ -3485,13 +3488,13 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
@@ -3506,7 +3509,7 @@
         <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -3523,13 +3526,13 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
@@ -3541,10 +3544,10 @@
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L3" t="s">
         <v>100</v>
@@ -3570,13 +3573,13 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
@@ -3588,7 +3591,7 @@
         <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O4" t="s">
         <v>54</v>
@@ -3605,13 +3608,13 @@
         <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G5" t="s">
         <v>58</v>
@@ -3623,7 +3626,7 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O5" t="s">
         <v>59</v>
@@ -3640,13 +3643,13 @@
         <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G6" t="s">
         <v>58</v>
@@ -3658,7 +3661,7 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O6" t="s">
         <v>54</v>
@@ -4685,10 +4688,10 @@
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="I3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J3" t="s">
         <v>44</v>
@@ -4720,7 +4723,7 @@
         <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I4" t="s">
         <v>45</v>
@@ -4729,13 +4732,13 @@
         <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L4" t="s">
         <v>98</v>
       </c>
       <c r="M4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>
@@ -4767,7 +4770,7 @@
         <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="I5" t="s">
         <v>53</v>
@@ -4796,19 +4799,19 @@
         <v>104</v>
       </c>
       <c r="F6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G6" t="s">
         <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="I6" t="s">
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O6" t="s">
         <v>59</v>
@@ -4831,19 +4834,19 @@
         <v>104</v>
       </c>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G7" t="s">
         <v>58</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="I7" t="s">
         <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O7" t="s">
         <v>54</v>
@@ -4920,28 +4923,28 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -4958,34 +4961,34 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -5005,13 +5008,13 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
@@ -5023,7 +5026,7 @@
         <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O4" t="s">
         <v>54</v>
@@ -5040,13 +5043,13 @@
         <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G5" t="s">
         <v>58</v>
@@ -5058,7 +5061,7 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O5" t="s">
         <v>59</v>
@@ -5075,13 +5078,13 @@
         <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G6" t="s">
         <v>58</v>
@@ -5093,7 +5096,7 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O6" t="s">
         <v>54</v>
@@ -5170,28 +5173,28 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -5208,13 +5211,13 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
@@ -5226,16 +5229,16 @@
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -5255,13 +5258,13 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
@@ -5273,7 +5276,7 @@
         <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O4" t="s">
         <v>54</v>
@@ -5290,13 +5293,13 @@
         <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G5" t="s">
         <v>58</v>
@@ -5308,7 +5311,7 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O5" t="s">
         <v>59</v>
@@ -5325,13 +5328,13 @@
         <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G6" t="s">
         <v>58</v>
@@ -5343,7 +5346,7 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O6" t="s">
         <v>54</v>
@@ -5420,28 +5423,28 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -5458,34 +5461,34 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -5505,13 +5508,13 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
@@ -5523,7 +5526,7 @@
         <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O4" t="s">
         <v>54</v>
@@ -5540,13 +5543,13 @@
         <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G5" t="s">
         <v>58</v>
@@ -5558,7 +5561,7 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O5" t="s">
         <v>59</v>
@@ -5575,13 +5578,13 @@
         <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G6" t="s">
         <v>58</v>
@@ -5593,7 +5596,7 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O6" t="s">
         <v>54</v>
@@ -5670,28 +5673,28 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -5708,34 +5711,34 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -5755,13 +5758,13 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
@@ -5773,7 +5776,7 @@
         <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O4" t="s">
         <v>54</v>
@@ -5790,13 +5793,13 @@
         <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G5" t="s">
         <v>58</v>
@@ -5808,7 +5811,7 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O5" t="s">
         <v>59</v>
@@ -5825,13 +5828,13 @@
         <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G6" t="s">
         <v>58</v>
@@ -5843,7 +5846,7 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O6" t="s">
         <v>54</v>

--- a/secteur-action-publique/services-publics-et-territoires/regions/barometre-resultats-services-publics-et-territoires-regions-synthese.xlsx
+++ b/secteur-action-publique/services-publics-et-territoires/regions/barometre-resultats-services-publics-et-territoires-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="274">
   <si>
     <t>mesure</t>
   </si>
@@ -150,7 +150,7 @@
     <t>% de déploiement</t>
   </si>
   <si>
-    <t xml:space="preserve">Déployer une offre France Services dans tous les territoires </t>
+    <t xml:space="preserve">Déployer une offre France services dans tous les territoires </t>
   </si>
   <si>
     <t>Nombre de labellisations (atteinte de l'objectif fixé)</t>
@@ -189,7 +189,10 @@
     <t>nb-logements-renoves-petites-villes</t>
   </si>
   <si>
-    <t>2021-11-30</t>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>2022-02-28</t>
   </si>
   <si>
     <t>2020-09-30</t>
@@ -204,10 +207,13 @@
     <t>nb-logement-accompagnement</t>
   </si>
   <si>
-    <t>549.0</t>
-  </si>
-  <si>
-    <t>2021-12-31</t>
+    <t>366.0</t>
+  </si>
+  <si>
+    <t>771.0</t>
+  </si>
+  <si>
+    <t>47.0</t>
   </si>
   <si>
     <t>logements</t>
@@ -255,91 +261,109 @@
     <t>200.0</t>
   </si>
   <si>
+    <t>43.0</t>
+  </si>
+  <si>
+    <t>458.0</t>
+  </si>
+  <si>
+    <t>1160.0</t>
+  </si>
+  <si>
+    <t>39.0</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>1183.0</t>
+  </si>
+  <si>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>356.0</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>120.0</t>
+  </si>
+  <si>
+    <t>999.0</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>1050.0</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t>88.0</t>
+  </si>
+  <si>
+    <t>53.0</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
     <t>3.0</t>
   </si>
   <si>
-    <t>774.0</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Guyane</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>1183.0</t>
-  </si>
-  <si>
-    <t>41.0</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>32.0</t>
-  </si>
-  <si>
-    <t>356.0</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>50.0</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>La Réunion</t>
-  </si>
-  <si>
-    <t>69.0</t>
-  </si>
-  <si>
-    <t>63.0</t>
-  </si>
-  <si>
-    <t>1050.0</t>
-  </si>
-  <si>
-    <t>67.0</t>
-  </si>
-  <si>
-    <t>88.0</t>
-  </si>
-  <si>
-    <t>53.0</t>
-  </si>
-  <si>
-    <t>35.0</t>
-  </si>
-  <si>
-    <t>66.0</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
     <t>433.0</t>
   </si>
   <si>
-    <t>34.0</t>
-  </si>
-  <si>
     <t>42.0</t>
   </si>
   <si>
-    <t>571.0</t>
+    <t>286.0</t>
+  </si>
+  <si>
+    <t>2032.0</t>
+  </si>
+  <si>
+    <t>14.0</t>
   </si>
   <si>
     <t>06</t>
@@ -351,19 +375,16 @@
     <t>68.0</t>
   </si>
   <si>
-    <t>5</t>
+    <t>5.0</t>
   </si>
   <si>
     <t>1260.0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2017-03-31</t>
   </si>
   <si>
-    <t>2</t>
+    <t>2.0</t>
   </si>
   <si>
     <t>400.0</t>
@@ -372,9 +393,6 @@
     <t>57.0</t>
   </si>
   <si>
-    <t>14.0</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -390,9 +408,6 @@
     <t>29.0</t>
   </si>
   <si>
-    <t>47.0</t>
-  </si>
-  <si>
     <t>128.0</t>
   </si>
   <si>
@@ -411,10 +426,13 @@
     <t>80.0</t>
   </si>
   <si>
-    <t>222.0</t>
-  </si>
-  <si>
-    <t>7455.0</t>
+    <t>330.0</t>
+  </si>
+  <si>
+    <t>11630.0</t>
+  </si>
+  <si>
+    <t>6164.0</t>
   </si>
   <si>
     <t>24</t>
@@ -426,9 +444,6 @@
     <t>19.0</t>
   </si>
   <si>
-    <t>43.0</t>
-  </si>
-  <si>
     <t>226.0</t>
   </si>
   <si>
@@ -447,10 +462,16 @@
     <t>82.0</t>
   </si>
   <si>
-    <t>718.0</t>
-  </si>
-  <si>
-    <t>3408.0</t>
+    <t>897.0</t>
+  </si>
+  <si>
+    <t>3188.0</t>
+  </si>
+  <si>
+    <t>3225.0</t>
+  </si>
+  <si>
+    <t>99.0</t>
   </si>
   <si>
     <t>27</t>
@@ -477,10 +498,16 @@
     <t>211.0</t>
   </si>
   <si>
-    <t>674.0</t>
-  </si>
-  <si>
-    <t>3845.0</t>
+    <t>772.0</t>
+  </si>
+  <si>
+    <t>3900.0</t>
+  </si>
+  <si>
+    <t>4631.0</t>
+  </si>
+  <si>
+    <t>84.0</t>
   </si>
   <si>
     <t>28</t>
@@ -495,9 +522,6 @@
     <t>20.0</t>
   </si>
   <si>
-    <t>39.0</t>
-  </si>
-  <si>
     <t>195.0</t>
   </si>
   <si>
@@ -513,10 +537,13 @@
     <t>79.0</t>
   </si>
   <si>
-    <t>1281.0</t>
-  </si>
-  <si>
-    <t>4076.0</t>
+    <t>1577.0</t>
+  </si>
+  <si>
+    <t>3560.0</t>
+  </si>
+  <si>
+    <t>3169.0</t>
   </si>
   <si>
     <t>32</t>
@@ -549,10 +576,13 @@
     <t>176.0</t>
   </si>
   <si>
-    <t>722.0</t>
-  </si>
-  <si>
-    <t>9820.0</t>
+    <t>868.0</t>
+  </si>
+  <si>
+    <t>7965.0</t>
+  </si>
+  <si>
+    <t>7920.0</t>
   </si>
   <si>
     <t>44</t>
@@ -582,10 +612,13 @@
     <t>242.0</t>
   </si>
   <si>
-    <t>1246.0</t>
-  </si>
-  <si>
-    <t>6795.0</t>
+    <t>1480.0</t>
+  </si>
+  <si>
+    <t>5937.0</t>
+  </si>
+  <si>
+    <t>5961.0</t>
   </si>
   <si>
     <t>52</t>
@@ -618,10 +651,13 @@
     <t>72.0</t>
   </si>
   <si>
-    <t>1820.0</t>
-  </si>
-  <si>
-    <t>3724.0</t>
+    <t>2055.0</t>
+  </si>
+  <si>
+    <t>3435.0</t>
+  </si>
+  <si>
+    <t>2935.0</t>
   </si>
   <si>
     <t>53</t>
@@ -642,10 +678,13 @@
     <t>125.0</t>
   </si>
   <si>
-    <t>1318.0</t>
-  </si>
-  <si>
-    <t>4354.0</t>
+    <t>1563.0</t>
+  </si>
+  <si>
+    <t>3872.0</t>
+  </si>
+  <si>
+    <t>3455.0</t>
   </si>
   <si>
     <t>75</t>
@@ -678,10 +717,13 @@
     <t>85.0</t>
   </si>
   <si>
-    <t>1735.0</t>
-  </si>
-  <si>
-    <t>7600.0</t>
+    <t>1973.0</t>
+  </si>
+  <si>
+    <t>7372.0</t>
+  </si>
+  <si>
+    <t>8226.0</t>
   </si>
   <si>
     <t>76</t>
@@ -705,10 +747,13 @@
     <t>312.0</t>
   </si>
   <si>
-    <t>2338.0</t>
-  </si>
-  <si>
-    <t>8918.0</t>
+    <t>2644.0</t>
+  </si>
+  <si>
+    <t>8389.0</t>
+  </si>
+  <si>
+    <t>7884.0</t>
   </si>
   <si>
     <t>84</t>
@@ -741,10 +786,13 @@
     <t>314.0</t>
   </si>
   <si>
-    <t>1874.0</t>
-  </si>
-  <si>
-    <t>8281.0</t>
+    <t>2278.0</t>
+  </si>
+  <si>
+    <t>7680.0</t>
+  </si>
+  <si>
+    <t>6157.0</t>
   </si>
   <si>
     <t>93</t>
@@ -774,10 +822,13 @@
     <t>87.0</t>
   </si>
   <si>
-    <t>752.0</t>
-  </si>
-  <si>
-    <t>2849.0</t>
+    <t>812.0</t>
+  </si>
+  <si>
+    <t>2654.0</t>
+  </si>
+  <si>
+    <t>4221.0</t>
   </si>
   <si>
     <t>94</t>
@@ -795,10 +846,13 @@
     <t>575.0</t>
   </si>
   <si>
-    <t>118.0</t>
-  </si>
-  <si>
-    <t>808.0</t>
+    <t>122.0</t>
+  </si>
+  <si>
+    <t>834.0</t>
+  </si>
+  <si>
+    <t>1090.0</t>
   </si>
 </sst>
 </file>
@@ -1329,22 +1383,22 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
         <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1352,10 +1406,10 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -1364,10 +1418,10 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
         <v>44</v>
@@ -1376,10 +1430,19 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="L6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1387,10 +1450,10 @@
         <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -1399,10 +1462,10 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H7" t="s">
         <v>44</v>
@@ -1411,10 +1474,19 @@
         <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="L7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" t="s">
+        <v>28</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1488,28 +1560,28 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F2" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="K2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -1526,13 +1598,13 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E3" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F3" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
@@ -1544,16 +1616,16 @@
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="K3" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="L3" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="M3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -1573,28 +1645,28 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F4" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
         <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1602,22 +1674,22 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E5" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F5" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
         <v>44</v>
@@ -1626,10 +1698,19 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>173</v>
+        <v>182</v>
+      </c>
+      <c r="L5" t="s">
+        <v>183</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
+        <v>28</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1637,22 +1718,22 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F6" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
         <v>44</v>
@@ -1661,10 +1742,19 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>173</v>
+        <v>182</v>
+      </c>
+      <c r="L6" t="s">
+        <v>183</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1738,28 +1828,28 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="K2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -1776,31 +1866,31 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E3" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F3" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K3" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="L3" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="M3" t="s">
         <v>24</v>
@@ -1823,28 +1913,28 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F4" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
         <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1852,22 +1942,22 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F5" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
         <v>44</v>
@@ -1876,10 +1966,19 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>184</v>
+        <v>194</v>
+      </c>
+      <c r="L5" t="s">
+        <v>195</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
+        <v>28</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1887,22 +1986,22 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E6" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F6" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
         <v>44</v>
@@ -1911,10 +2010,19 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>184</v>
+        <v>194</v>
+      </c>
+      <c r="L6" t="s">
+        <v>195</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1988,28 +2096,28 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="E2" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K2" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -2026,34 +2134,34 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="E3" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="F3" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="K3" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="L3" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="M3" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -2073,28 +2181,28 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="E4" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="F4" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
         <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2102,22 +2210,22 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="E5" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="F5" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
         <v>44</v>
@@ -2126,10 +2234,19 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>196</v>
+        <v>207</v>
+      </c>
+      <c r="L5" t="s">
+        <v>208</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
+        <v>28</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2137,22 +2254,22 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="E6" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="F6" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
         <v>44</v>
@@ -2161,10 +2278,19 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>196</v>
+        <v>207</v>
+      </c>
+      <c r="L6" t="s">
+        <v>208</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2238,28 +2364,28 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="K2" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -2276,34 +2402,34 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E3" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="F3" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K3" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="L3" t="s">
+        <v>214</v>
+      </c>
+      <c r="M3" t="s">
         <v>202</v>
-      </c>
-      <c r="M3" t="s">
-        <v>191</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -2323,28 +2449,28 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E4" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="F4" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
         <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2352,22 +2478,22 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E5" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="F5" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
         <v>44</v>
@@ -2376,10 +2502,19 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>204</v>
+        <v>216</v>
+      </c>
+      <c r="L5" t="s">
+        <v>217</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
+        <v>28</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2387,22 +2522,22 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E6" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="F6" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
         <v>44</v>
@@ -2411,10 +2546,19 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>204</v>
+        <v>216</v>
+      </c>
+      <c r="L6" t="s">
+        <v>217</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2488,28 +2632,28 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="F2" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="K2" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -2526,34 +2670,34 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E3" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="F3" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="K3" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="L3" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="M3" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -2573,28 +2717,28 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E4" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="F4" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
         <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2602,22 +2746,22 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E5" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="F5" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
         <v>44</v>
@@ -2626,10 +2770,19 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>216</v>
+        <v>229</v>
+      </c>
+      <c r="L5" t="s">
+        <v>230</v>
+      </c>
+      <c r="M5" t="s">
+        <v>200</v>
+      </c>
+      <c r="N5" t="s">
+        <v>28</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2637,22 +2790,22 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E6" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="F6" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
         <v>44</v>
@@ -2661,10 +2814,19 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>216</v>
+        <v>229</v>
+      </c>
+      <c r="L6" t="s">
+        <v>230</v>
+      </c>
+      <c r="M6" t="s">
+        <v>200</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2738,28 +2900,28 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="F2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="K2" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -2776,13 +2938,13 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="E3" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="F3" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
@@ -2794,16 +2956,16 @@
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="K3" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="L3" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="M3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -2823,28 +2985,28 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="E4" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="F4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
         <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2852,22 +3014,22 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="E5" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="F5" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
         <v>44</v>
@@ -2876,10 +3038,19 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>225</v>
+        <v>239</v>
+      </c>
+      <c r="L5" t="s">
+        <v>240</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
+        <v>28</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2887,22 +3058,22 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="E6" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="F6" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
         <v>44</v>
@@ -2911,10 +3082,19 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>225</v>
+        <v>239</v>
+      </c>
+      <c r="L6" t="s">
+        <v>240</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2988,28 +3168,28 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="E2" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="F2" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -3026,31 +3206,31 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="E3" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="F3" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="K3" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="L3" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="M3" t="s">
         <v>24</v>
@@ -3073,28 +3253,28 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="E4" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="F4" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
         <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -3102,22 +3282,22 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="E5" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="F5" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
         <v>44</v>
@@ -3126,10 +3306,19 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>237</v>
+        <v>252</v>
+      </c>
+      <c r="L5" t="s">
+        <v>253</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
+        <v>28</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -3137,22 +3326,22 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="E6" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="F6" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
         <v>44</v>
@@ -3161,10 +3350,19 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>237</v>
+        <v>252</v>
+      </c>
+      <c r="L6" t="s">
+        <v>253</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3238,28 +3436,28 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="E2" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="K2" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -3276,34 +3474,34 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="E3" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="F3" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="K3" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="L3" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="M3" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -3323,28 +3521,28 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="E4" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="F4" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
         <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -3352,22 +3550,22 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="E5" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="F5" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
         <v>44</v>
@@ -3376,10 +3574,19 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>248</v>
+        <v>264</v>
+      </c>
+      <c r="L5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M5" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5" t="s">
+        <v>28</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -3387,22 +3594,22 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="E6" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="F6" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
         <v>44</v>
@@ -3411,10 +3618,19 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>248</v>
+        <v>264</v>
+      </c>
+      <c r="L6" t="s">
+        <v>265</v>
+      </c>
+      <c r="M6" t="s">
+        <v>97</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3488,19 +3704,19 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="E2" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="F2" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -3509,7 +3725,7 @@
         <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -3526,34 +3742,34 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="E3" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="F3" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="K3" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="L3" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -3573,28 +3789,28 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="E4" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="F4" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
         <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -3602,22 +3818,22 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="E5" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="F5" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
         <v>44</v>
@@ -3626,10 +3842,19 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>255</v>
+        <v>272</v>
+      </c>
+      <c r="L5" t="s">
+        <v>273</v>
+      </c>
+      <c r="M5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" t="s">
+        <v>28</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -3637,22 +3862,22 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="E6" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="F6" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
         <v>44</v>
@@ -3661,10 +3886,19 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>255</v>
+        <v>272</v>
+      </c>
+      <c r="L6" t="s">
+        <v>273</v>
+      </c>
+      <c r="M6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3738,13 +3972,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3756,16 +3990,16 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -3785,13 +4019,13 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
         <v>34</v>
@@ -3803,10 +4037,10 @@
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O3" t="s">
         <v>38</v>
@@ -3823,28 +4057,28 @@
         <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s">
         <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s">
         <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
@@ -3870,28 +4104,28 @@
         <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
         <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -3899,22 +4133,22 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
         <v>44</v>
@@ -3923,10 +4157,19 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -3934,22 +4177,22 @@
         <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H7" t="s">
         <v>44</v>
@@ -3958,10 +4201,19 @@
         <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="L7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" t="s">
+        <v>79</v>
+      </c>
+      <c r="N7" t="s">
+        <v>28</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4035,19 +4287,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -4056,7 +4308,7 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -4082,28 +4334,28 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="O3" t="s">
         <v>38</v>
@@ -4120,34 +4372,34 @@
         <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s">
         <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I4" t="s">
         <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>
@@ -4167,28 +4419,28 @@
         <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
         <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -4196,22 +4448,22 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
         <v>44</v>
@@ -4220,10 +4472,19 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="L6" t="s">
+        <v>93</v>
+      </c>
+      <c r="M6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -4231,22 +4492,22 @@
         <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H7" t="s">
         <v>44</v>
@@ -4255,10 +4516,19 @@
         <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" t="s">
+        <v>28</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4332,34 +4602,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -4379,28 +4649,28 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G3" t="s">
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O3" t="s">
         <v>38</v>
@@ -4417,19 +4687,19 @@
         <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G4" t="s">
         <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="I4" t="s">
         <v>45</v>
@@ -4438,13 +4708,13 @@
         <v>35</v>
       </c>
       <c r="K4" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="M4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>
@@ -4464,28 +4734,28 @@
         <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
         <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -4493,22 +4763,22 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
         <v>44</v>
@@ -4517,10 +4787,19 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>102</v>
+        <v>108</v>
+      </c>
+      <c r="L6" t="s">
+        <v>109</v>
+      </c>
+      <c r="M6" t="s">
+        <v>110</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -4528,22 +4807,22 @@
         <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H7" t="s">
         <v>44</v>
@@ -4552,10 +4831,19 @@
         <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>102</v>
+        <v>108</v>
+      </c>
+      <c r="L7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M7" t="s">
+        <v>110</v>
+      </c>
+      <c r="N7" t="s">
+        <v>28</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4629,34 +4917,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
@@ -4676,10 +4964,10 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F3" t="s">
         <v>44</v>
@@ -4688,10 +4976,10 @@
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="J3" t="s">
         <v>44</v>
@@ -4711,34 +4999,34 @@
         <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G4" t="s">
         <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="I4" t="s">
         <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="L4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>
@@ -4758,28 +5046,28 @@
         <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" t="s">
         <v>44</v>
       </c>
-      <c r="G5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" t="s">
-        <v>108</v>
-      </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -4787,34 +5075,40 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F6" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>113</v>
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -4822,34 +5116,40 @@
         <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H7" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
         <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>113</v>
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" t="s">
+        <v>28</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4923,28 +5223,28 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="K2" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -4961,34 +5261,34 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="K3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="L3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="M3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -5008,28 +5308,28 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
         <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -5037,22 +5337,22 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
         <v>44</v>
@@ -5061,10 +5361,19 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>127</v>
+        <v>132</v>
+      </c>
+      <c r="L5" t="s">
+        <v>133</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
+        <v>28</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -5072,22 +5381,22 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F6" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
         <v>44</v>
@@ -5096,10 +5405,19 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>127</v>
+        <v>132</v>
+      </c>
+      <c r="L6" t="s">
+        <v>133</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5173,28 +5491,28 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -5211,34 +5529,34 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="K3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="L3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -5258,28 +5576,28 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
         <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -5287,22 +5605,22 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
         <v>44</v>
@@ -5311,10 +5629,19 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>139</v>
+        <v>144</v>
+      </c>
+      <c r="L5" t="s">
+        <v>145</v>
+      </c>
+      <c r="M5" t="s">
+        <v>146</v>
+      </c>
+      <c r="N5" t="s">
+        <v>28</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -5322,22 +5649,22 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
         <v>44</v>
@@ -5346,10 +5673,19 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>139</v>
+        <v>144</v>
+      </c>
+      <c r="L6" t="s">
+        <v>145</v>
+      </c>
+      <c r="M6" t="s">
+        <v>146</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5423,28 +5759,28 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F2" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="K2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -5461,34 +5797,34 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F3" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="K3" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="L3" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="M3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -5508,28 +5844,28 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E4" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F4" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
         <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -5537,22 +5873,22 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
         <v>44</v>
@@ -5561,10 +5897,19 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>149</v>
+        <v>156</v>
+      </c>
+      <c r="L5" t="s">
+        <v>157</v>
+      </c>
+      <c r="M5" t="s">
+        <v>158</v>
+      </c>
+      <c r="N5" t="s">
+        <v>28</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -5572,22 +5917,22 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E6" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F6" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
         <v>44</v>
@@ -5596,10 +5941,19 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>149</v>
+        <v>156</v>
+      </c>
+      <c r="L6" t="s">
+        <v>157</v>
+      </c>
+      <c r="M6" t="s">
+        <v>158</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5673,28 +6027,28 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="K2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -5711,34 +6065,34 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="K3" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="L3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="M3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -5758,28 +6112,28 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F4" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
         <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -5787,22 +6141,22 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F5" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
         <v>44</v>
@@ -5811,10 +6165,19 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>161</v>
+        <v>169</v>
+      </c>
+      <c r="L5" t="s">
+        <v>170</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
+        <v>28</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -5822,22 +6185,22 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E6" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F6" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
         <v>44</v>
@@ -5846,10 +6209,19 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>161</v>
+        <v>169</v>
+      </c>
+      <c r="L6" t="s">
+        <v>170</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/services-publics-et-territoires/regions/barometre-resultats-services-publics-et-territoires-regions-synthese.xlsx
+++ b/secteur-action-publique/services-publics-et-territoires/regions/barometre-resultats-services-publics-et-territoires-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="275">
   <si>
     <t>mesure</t>
   </si>
@@ -375,16 +375,19 @@
     <t>68.0</t>
   </si>
   <si>
-    <t>5.0</t>
+    <t>5</t>
   </si>
   <si>
     <t>1260.0</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>2017-03-31</t>
   </si>
   <si>
-    <t>2.0</t>
+    <t>2</t>
   </si>
   <si>
     <t>400.0</t>
@@ -1560,28 +1563,28 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -1598,13 +1601,13 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
@@ -1616,13 +1619,13 @@
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M3" t="s">
         <v>65</v>
@@ -1645,13 +1648,13 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G4" t="s">
         <v>53</v>
@@ -1663,7 +1666,7 @@
         <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O4" t="s">
         <v>55</v>
@@ -1680,13 +1683,13 @@
         <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G5" t="s">
         <v>53</v>
@@ -1698,10 +1701,10 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M5" t="s">
         <v>26</v>
@@ -1724,13 +1727,13 @@
         <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G6" t="s">
         <v>53</v>
@@ -1742,10 +1745,10 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M6" t="s">
         <v>26</v>
@@ -1828,10 +1831,10 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F2" t="s">
         <v>66</v>
@@ -1846,10 +1849,10 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -1866,31 +1869,31 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M3" t="s">
         <v>24</v>
@@ -1913,13 +1916,13 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G4" t="s">
         <v>53</v>
@@ -1931,7 +1934,7 @@
         <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O4" t="s">
         <v>55</v>
@@ -1948,13 +1951,13 @@
         <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G5" t="s">
         <v>53</v>
@@ -1966,10 +1969,10 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M5" t="s">
         <v>26</v>
@@ -1992,13 +1995,13 @@
         <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G6" t="s">
         <v>53</v>
@@ -2010,10 +2013,10 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M6" t="s">
         <v>26</v>
@@ -2096,19 +2099,19 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -2117,7 +2120,7 @@
         <v>84</v>
       </c>
       <c r="K2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -2134,34 +2137,34 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -2181,13 +2184,13 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G4" t="s">
         <v>53</v>
@@ -2199,7 +2202,7 @@
         <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O4" t="s">
         <v>55</v>
@@ -2216,13 +2219,13 @@
         <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G5" t="s">
         <v>53</v>
@@ -2234,10 +2237,10 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M5" t="s">
         <v>26</v>
@@ -2260,13 +2263,13 @@
         <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G6" t="s">
         <v>53</v>
@@ -2278,10 +2281,10 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M6" t="s">
         <v>26</v>
@@ -2364,10 +2367,10 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F2" t="s">
         <v>76</v>
@@ -2376,16 +2379,16 @@
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -2402,13 +2405,13 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
@@ -2423,13 +2426,13 @@
         <v>113</v>
       </c>
       <c r="K3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -2449,13 +2452,13 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G4" t="s">
         <v>53</v>
@@ -2467,7 +2470,7 @@
         <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O4" t="s">
         <v>55</v>
@@ -2484,13 +2487,13 @@
         <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G5" t="s">
         <v>53</v>
@@ -2502,10 +2505,10 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M5" t="s">
         <v>26</v>
@@ -2528,13 +2531,13 @@
         <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G6" t="s">
         <v>53</v>
@@ -2546,10 +2549,10 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M6" t="s">
         <v>26</v>
@@ -2632,28 +2635,28 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -2670,13 +2673,13 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
@@ -2688,16 +2691,16 @@
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -2717,13 +2720,13 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G4" t="s">
         <v>53</v>
@@ -2735,7 +2738,7 @@
         <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O4" t="s">
         <v>55</v>
@@ -2752,13 +2755,13 @@
         <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G5" t="s">
         <v>53</v>
@@ -2770,13 +2773,13 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N5" t="s">
         <v>28</v>
@@ -2796,13 +2799,13 @@
         <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G6" t="s">
         <v>53</v>
@@ -2814,13 +2817,13 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -2900,28 +2903,28 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -2938,13 +2941,13 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
@@ -2956,16 +2959,16 @@
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -2985,13 +2988,13 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G4" t="s">
         <v>53</v>
@@ -3003,7 +3006,7 @@
         <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O4" t="s">
         <v>55</v>
@@ -3020,13 +3023,13 @@
         <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G5" t="s">
         <v>53</v>
@@ -3038,10 +3041,10 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M5" t="s">
         <v>26</v>
@@ -3064,13 +3067,13 @@
         <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G6" t="s">
         <v>53</v>
@@ -3082,10 +3085,10 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M6" t="s">
         <v>26</v>
@@ -3168,19 +3171,19 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -3189,7 +3192,7 @@
         <v>52</v>
       </c>
       <c r="K2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -3206,31 +3209,31 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M3" t="s">
         <v>24</v>
@@ -3253,13 +3256,13 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G4" t="s">
         <v>53</v>
@@ -3271,7 +3274,7 @@
         <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O4" t="s">
         <v>55</v>
@@ -3288,13 +3291,13 @@
         <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G5" t="s">
         <v>53</v>
@@ -3306,10 +3309,10 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M5" t="s">
         <v>26</v>
@@ -3332,13 +3335,13 @@
         <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G6" t="s">
         <v>53</v>
@@ -3350,10 +3353,10 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M6" t="s">
         <v>26</v>
@@ -3436,10 +3439,10 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F2" t="s">
         <v>66</v>
@@ -3448,16 +3451,16 @@
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -3474,34 +3477,34 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -3521,13 +3524,13 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G4" t="s">
         <v>53</v>
@@ -3539,7 +3542,7 @@
         <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O4" t="s">
         <v>55</v>
@@ -3556,13 +3559,13 @@
         <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G5" t="s">
         <v>53</v>
@@ -3574,10 +3577,10 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M5" t="s">
         <v>97</v>
@@ -3600,13 +3603,13 @@
         <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G6" t="s">
         <v>53</v>
@@ -3618,10 +3621,10 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M6" t="s">
         <v>97</v>
@@ -3704,10 +3707,10 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F2" t="s">
         <v>60</v>
@@ -3725,7 +3728,7 @@
         <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -3742,13 +3745,13 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
@@ -3760,10 +3763,10 @@
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L3" t="s">
         <v>52</v>
@@ -3789,13 +3792,13 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G4" t="s">
         <v>53</v>
@@ -3807,7 +3810,7 @@
         <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O4" t="s">
         <v>55</v>
@@ -3824,13 +3827,13 @@
         <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G5" t="s">
         <v>53</v>
@@ -3842,10 +3845,10 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M5" t="s">
         <v>65</v>
@@ -3868,13 +3871,13 @@
         <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G6" t="s">
         <v>53</v>
@@ -3886,10 +3889,10 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M6" t="s">
         <v>65</v>
@@ -4976,10 +4979,10 @@
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="I3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J3" t="s">
         <v>44</v>
@@ -5011,7 +5014,7 @@
         <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I4" t="s">
         <v>45</v>
@@ -5020,13 +5023,13 @@
         <v>74</v>
       </c>
       <c r="K4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L4" t="s">
         <v>104</v>
       </c>
       <c r="M4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>
@@ -5058,7 +5061,7 @@
         <v>53</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="I5" t="s">
         <v>54</v>
@@ -5093,7 +5096,7 @@
         <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="I6" t="s">
         <v>21</v>
@@ -5134,7 +5137,7 @@
         <v>53</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="I7" t="s">
         <v>21</v>
@@ -5223,25 +5226,25 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K2" t="s">
         <v>60</v>
@@ -5261,34 +5264,34 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -5308,13 +5311,13 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G4" t="s">
         <v>53</v>
@@ -5326,7 +5329,7 @@
         <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O4" t="s">
         <v>55</v>
@@ -5343,13 +5346,13 @@
         <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G5" t="s">
         <v>53</v>
@@ -5361,10 +5364,10 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M5" t="s">
         <v>26</v>
@@ -5387,13 +5390,13 @@
         <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G6" t="s">
         <v>53</v>
@@ -5405,10 +5408,10 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M6" t="s">
         <v>26</v>
@@ -5491,19 +5494,19 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -5512,7 +5515,7 @@
         <v>76</v>
       </c>
       <c r="K2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -5529,13 +5532,13 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
@@ -5547,16 +5550,16 @@
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -5576,13 +5579,13 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G4" t="s">
         <v>53</v>
@@ -5594,7 +5597,7 @@
         <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O4" t="s">
         <v>55</v>
@@ -5611,13 +5614,13 @@
         <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G5" t="s">
         <v>53</v>
@@ -5629,13 +5632,13 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N5" t="s">
         <v>28</v>
@@ -5655,13 +5658,13 @@
         <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G6" t="s">
         <v>53</v>
@@ -5673,13 +5676,13 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -5759,10 +5762,10 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
         <v>60</v>
@@ -5777,10 +5780,10 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -5797,34 +5800,34 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -5844,13 +5847,13 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G4" t="s">
         <v>53</v>
@@ -5862,7 +5865,7 @@
         <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O4" t="s">
         <v>55</v>
@@ -5879,13 +5882,13 @@
         <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G5" t="s">
         <v>53</v>
@@ -5897,13 +5900,13 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N5" t="s">
         <v>28</v>
@@ -5923,13 +5926,13 @@
         <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G6" t="s">
         <v>53</v>
@@ -5941,13 +5944,13 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -6027,19 +6030,19 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -6048,7 +6051,7 @@
         <v>79</v>
       </c>
       <c r="K2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -6065,13 +6068,13 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
@@ -6083,16 +6086,16 @@
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -6112,13 +6115,13 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G4" t="s">
         <v>53</v>
@@ -6130,7 +6133,7 @@
         <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O4" t="s">
         <v>55</v>
@@ -6147,13 +6150,13 @@
         <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G5" t="s">
         <v>53</v>
@@ -6165,10 +6168,10 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M5" t="s">
         <v>26</v>
@@ -6191,13 +6194,13 @@
         <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G6" t="s">
         <v>53</v>
@@ -6209,10 +6212,10 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M6" t="s">
         <v>26</v>

--- a/secteur-action-publique/services-publics-et-territoires/regions/barometre-resultats-services-publics-et-territoires-regions-synthese.xlsx
+++ b/secteur-action-publique/services-publics-et-territoires/regions/barometre-resultats-services-publics-et-territoires-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="256">
   <si>
     <t>mesure</t>
   </si>
@@ -93,766 +93,709 @@
     <t>Guadeloupe</t>
   </si>
   <si>
+    <t>74.0</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t>957.0</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>72.0</t>
+  </si>
+  <si>
+    <t>% de réseaux</t>
+  </si>
+  <si>
+    <t>Assurer une bonne couverture en internet fixe et en téléphonie mobile pour tous les Français d'ici 2022</t>
+  </si>
+  <si>
+    <t>Taux de déploiement de la fibre</t>
+  </si>
+  <si>
+    <t>taux-deploiement-fibre</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>37.0</t>
+  </si>
+  <si>
+    <t>285.0</t>
+  </si>
+  <si>
+    <t>% de déploiement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Déployer une offre France services dans tous les territoires </t>
+  </si>
+  <si>
+    <t>Nombre de labellisations (atteinte de l'objectif fixé)</t>
+  </si>
+  <si>
+    <t>nb-labellisations-france-services</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>2020-01-31</t>
+  </si>
+  <si>
+    <t>labellisations</t>
+  </si>
+  <si>
+    <t>Redynamiser les cœurs de ville</t>
+  </si>
+  <si>
+    <t>Nombre de logements rénovés dans les petites villes (- de 20 000 habitants)</t>
+  </si>
+  <si>
+    <t>nb-logements-renoves-petites-villes</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>logements rénovés</t>
+  </si>
+  <si>
+    <t>Nombre de logements ayant bénéficié d'un accompagnement (réhabilitation ou subvention)</t>
+  </si>
+  <si>
+    <t>nb-logement-accompagnement</t>
+  </si>
+  <si>
+    <t>377.0</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>771.0</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>logements</t>
+  </si>
+  <si>
+    <t>Nombre de logements rénovés dans les villes moyennes (+ de 20 000 habitants)</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>87.0</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>1143.0</t>
+  </si>
+  <si>
+    <t>86.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>429.0</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>300.0</t>
+  </si>
+  <si>
+    <t>43.0</t>
+  </si>
+  <si>
+    <t>460.0</t>
+  </si>
+  <si>
+    <t>1160.0</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>73.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>1117.0</t>
+  </si>
+  <si>
+    <t>71.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>456.0</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>2200.0</t>
+  </si>
+  <si>
+    <t>120.0</t>
+  </si>
+  <si>
+    <t>999.0</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>76.0</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>1167.0</t>
+  </si>
+  <si>
+    <t>91.0</t>
+  </si>
+  <si>
+    <t>53.0</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>833.0</t>
+  </si>
+  <si>
+    <t>287.0</t>
+  </si>
+  <si>
+    <t>2032.0</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
     <t>78.0</t>
   </si>
   <si>
-    <t>2019-12-31</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>2017-12-31</t>
-  </si>
-  <si>
-    <t>71.0</t>
-  </si>
-  <si>
-    <t>1014.0</t>
-  </si>
-  <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>76.0</t>
-  </si>
-  <si>
-    <t>2022-12-31</t>
-  </si>
-  <si>
-    <t>% de réseaux</t>
-  </si>
-  <si>
-    <t>Assurer une bonne couverture en internet fixe et en téléphonie mobile pour tous les Français d'ici 2022</t>
-  </si>
-  <si>
-    <t>Taux de déploiement de la fibre</t>
-  </si>
-  <si>
-    <t>taux-deploiement-fibre</t>
-  </si>
-  <si>
-    <t>30.0</t>
-  </si>
-  <si>
-    <t>2021-09-30</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>131.0</t>
-  </si>
-  <si>
-    <t>% de déploiement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Déployer une offre France services dans tous les territoires </t>
-  </si>
-  <si>
-    <t>Nombre de labellisations (atteinte de l'objectif fixé)</t>
-  </si>
-  <si>
-    <t>nb-labellisations-france-services</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t>2022-03-31</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>2020-01-31</t>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>1460.0</t>
+  </si>
+  <si>
+    <t>77.0</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>500.0</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>93.0</t>
+  </si>
+  <si>
+    <t>62.0</t>
   </si>
   <si>
     <t>31.0</t>
   </si>
   <si>
+    <t>163.0</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>137.0</t>
+  </si>
+  <si>
+    <t>527.0</t>
+  </si>
+  <si>
+    <t>380.0</t>
+  </si>
+  <si>
+    <t>8400.0</t>
+  </si>
+  <si>
+    <t>6164.0</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>79.0</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>316.0</t>
+  </si>
+  <si>
+    <t>142.0</t>
+  </si>
+  <si>
+    <t>121.0</t>
+  </si>
+  <si>
+    <t>576.0</t>
+  </si>
+  <si>
+    <t>1163.0</t>
+  </si>
+  <si>
+    <t>4295.0</t>
+  </si>
+  <si>
+    <t>3225.0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>350.0</t>
+  </si>
+  <si>
+    <t>211.0</t>
+  </si>
+  <si>
+    <t>182.0</t>
+  </si>
+  <si>
+    <t>628.0</t>
+  </si>
+  <si>
+    <t>212.0</t>
+  </si>
+  <si>
+    <t>99.0</t>
+  </si>
+  <si>
+    <t>1004.0</t>
+  </si>
+  <si>
+    <t>5074.0</t>
+  </si>
+  <si>
+    <t>4631.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>250.0</t>
+  </si>
+  <si>
+    <t>159.0</t>
+  </si>
+  <si>
+    <t>116.0</t>
+  </si>
+  <si>
+    <t>270.0</t>
+  </si>
+  <si>
+    <t>2083.0</t>
+  </si>
+  <si>
+    <t>5572.0</t>
+  </si>
+  <si>
+    <t>3169.0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>314.0</t>
+  </si>
+  <si>
+    <t>184.0</t>
+  </si>
+  <si>
+    <t>153.0</t>
+  </si>
+  <si>
+    <t>494.0</t>
+  </si>
+  <si>
+    <t>1213.0</t>
+  </si>
+  <si>
+    <t>9190.0</t>
+  </si>
+  <si>
+    <t>7920.0</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>84.0</t>
+  </si>
+  <si>
+    <t>219.0</t>
+  </si>
+  <si>
+    <t>181.0</t>
+  </si>
+  <si>
+    <t>476.0</t>
+  </si>
+  <si>
+    <t>221.0</t>
+  </si>
+  <si>
+    <t>1859.0</t>
+  </si>
+  <si>
+    <t>7848.0</t>
+  </si>
+  <si>
+    <t>5961.0</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>58.0</t>
+  </si>
+  <si>
+    <t>322.0</t>
+  </si>
+  <si>
+    <t>119.0</t>
+  </si>
+  <si>
+    <t>94.0</t>
+  </si>
+  <si>
+    <t>376.0</t>
+  </si>
+  <si>
+    <t>2620.0</t>
+  </si>
+  <si>
+    <t>6283.0</t>
+  </si>
+  <si>
+    <t>2935.0</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
     <t>48.0</t>
   </si>
   <si>
-    <t>labellisations</t>
-  </si>
-  <si>
-    <t>Redynamiser les cœurs de ville</t>
-  </si>
-  <si>
-    <t>Nombre de logements rénovés dans les petites villes (- de 20 000 habitants)</t>
-  </si>
-  <si>
-    <t>nb-logements-renoves-petites-villes</t>
-  </si>
-  <si>
-    <t>34.0</t>
-  </si>
-  <si>
-    <t>2022-02-28</t>
-  </si>
-  <si>
-    <t>2020-09-30</t>
-  </si>
-  <si>
-    <t>logements rénovés</t>
-  </si>
-  <si>
-    <t>Nombre de logements ayant bénéficié d'un accompagnement (réhabilitation ou subvention)</t>
-  </si>
-  <si>
-    <t>nb-logement-accompagnement</t>
-  </si>
-  <si>
-    <t>366.0</t>
-  </si>
-  <si>
-    <t>771.0</t>
-  </si>
-  <si>
-    <t>47.0</t>
-  </si>
-  <si>
-    <t>logements</t>
-  </si>
-  <si>
-    <t>Nombre de logements rénovés dans les villes moyennes (+ de 20 000 habitants)</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>77.0</t>
-  </si>
-  <si>
-    <t>70.0</t>
-  </si>
-  <si>
-    <t>1000.0</t>
-  </si>
-  <si>
-    <t>75.0</t>
-  </si>
-  <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>300.0</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>8.0</t>
+    <t>167.0</t>
+  </si>
+  <si>
+    <t>471.0</t>
+  </si>
+  <si>
+    <t>2151.0</t>
+  </si>
+  <si>
+    <t>6537.0</t>
+  </si>
+  <si>
+    <t>3455.0</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>51.0</t>
+  </si>
+  <si>
+    <t>283.0</t>
+  </si>
+  <si>
+    <t>321.0</t>
+  </si>
+  <si>
+    <t>268.0</t>
+  </si>
+  <si>
+    <t>506.0</t>
+  </si>
+  <si>
+    <t>323.0</t>
+  </si>
+  <si>
+    <t>2537.0</t>
+  </si>
+  <si>
+    <t>10060.0</t>
+  </si>
+  <si>
+    <t>8226.0</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>59.0</t>
+  </si>
+  <si>
+    <t>311.0</t>
+  </si>
+  <si>
+    <t>309.0</t>
+  </si>
+  <si>
+    <t>238.0</t>
+  </si>
+  <si>
+    <t>335.0</t>
+  </si>
+  <si>
+    <t>312.0</t>
+  </si>
+  <si>
+    <t>3366.0</t>
+  </si>
+  <si>
+    <t>11948.0</t>
+  </si>
+  <si>
+    <t>7884.0</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>156.0</t>
+  </si>
+  <si>
+    <t>299.0</t>
+  </si>
+  <si>
+    <t>248.0</t>
+  </si>
+  <si>
+    <t>486.0</t>
+  </si>
+  <si>
+    <t>303.0</t>
+  </si>
+  <si>
+    <t>98.0</t>
+  </si>
+  <si>
+    <t>3003.0</t>
+  </si>
+  <si>
+    <t>10532.0</t>
+  </si>
+  <si>
+    <t>6157.0</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>52.0</t>
   </si>
   <si>
     <t>200.0</t>
   </si>
   <si>
-    <t>43.0</t>
-  </si>
-  <si>
-    <t>458.0</t>
-  </si>
-  <si>
-    <t>1160.0</t>
-  </si>
-  <si>
-    <t>39.0</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Guyane</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>1183.0</t>
-  </si>
-  <si>
-    <t>41.0</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>32.0</t>
-  </si>
-  <si>
-    <t>356.0</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>50.0</t>
-  </si>
-  <si>
-    <t>120.0</t>
-  </si>
-  <si>
-    <t>999.0</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>La Réunion</t>
-  </si>
-  <si>
-    <t>69.0</t>
-  </si>
-  <si>
-    <t>63.0</t>
-  </si>
-  <si>
-    <t>1050.0</t>
-  </si>
-  <si>
-    <t>67.0</t>
+    <t>147.0</t>
+  </si>
+  <si>
+    <t>110.0</t>
+  </si>
+  <si>
+    <t>297.0</t>
+  </si>
+  <si>
+    <t>977.0</t>
+  </si>
+  <si>
+    <t>3717.0</t>
+  </si>
+  <si>
+    <t>4221.0</t>
   </si>
   <si>
     <t>88.0</t>
   </si>
   <si>
-    <t>53.0</t>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Corse</t>
+  </si>
+  <si>
+    <t>64.0</t>
   </si>
   <si>
     <t>35.0</t>
   </si>
   <si>
-    <t>66.0</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>433.0</t>
-  </si>
-  <si>
-    <t>42.0</t>
-  </si>
-  <si>
-    <t>286.0</t>
-  </si>
-  <si>
-    <t>2032.0</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>68.0</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1260.0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2017-03-31</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>400.0</t>
-  </si>
-  <si>
-    <t>57.0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>91.0</t>
-  </si>
-  <si>
-    <t>62.0</t>
-  </si>
-  <si>
-    <t>29.0</t>
-  </si>
-  <si>
-    <t>128.0</t>
-  </si>
-  <si>
-    <t>26.0</t>
-  </si>
-  <si>
-    <t>102.0</t>
-  </si>
-  <si>
-    <t>392.0</t>
-  </si>
-  <si>
-    <t>154.0</t>
-  </si>
-  <si>
-    <t>80.0</t>
-  </si>
-  <si>
-    <t>330.0</t>
-  </si>
-  <si>
-    <t>11630.0</t>
-  </si>
-  <si>
-    <t>6164.0</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>19.0</t>
-  </si>
-  <si>
-    <t>226.0</t>
-  </si>
-  <si>
-    <t>117.0</t>
-  </si>
-  <si>
-    <t>96.0</t>
-  </si>
-  <si>
-    <t>457.0</t>
-  </si>
-  <si>
-    <t>138.0</t>
-  </si>
-  <si>
-    <t>82.0</t>
-  </si>
-  <si>
-    <t>897.0</t>
-  </si>
-  <si>
-    <t>3188.0</t>
-  </si>
-  <si>
-    <t>3225.0</t>
-  </si>
-  <si>
-    <t>99.0</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>33.0</t>
-  </si>
-  <si>
-    <t>236.0</t>
-  </si>
-  <si>
-    <t>175.0</t>
-  </si>
-  <si>
-    <t>146.0</t>
-  </si>
-  <si>
-    <t>503.0</t>
-  </si>
-  <si>
-    <t>211.0</t>
-  </si>
-  <si>
-    <t>772.0</t>
-  </si>
-  <si>
-    <t>3900.0</t>
-  </si>
-  <si>
-    <t>4631.0</t>
-  </si>
-  <si>
-    <t>84.0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>59.0</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>195.0</t>
-  </si>
-  <si>
-    <t>95.0</t>
-  </si>
-  <si>
-    <t>221.0</t>
-  </si>
-  <si>
-    <t>164.0</t>
-  </si>
-  <si>
-    <t>79.0</t>
-  </si>
-  <si>
-    <t>1577.0</t>
-  </si>
-  <si>
-    <t>3560.0</t>
-  </si>
-  <si>
-    <t>3169.0</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>86.0</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>64.0</t>
-  </si>
-  <si>
-    <t>291.0</t>
-  </si>
-  <si>
-    <t>142.0</t>
-  </si>
-  <si>
-    <t>111.0</t>
-  </si>
-  <si>
-    <t>358.0</t>
-  </si>
-  <si>
-    <t>176.0</t>
-  </si>
-  <si>
-    <t>868.0</t>
-  </si>
-  <si>
-    <t>7965.0</t>
-  </si>
-  <si>
-    <t>7920.0</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>49.0</t>
-  </si>
-  <si>
-    <t>233.0</t>
-  </si>
-  <si>
-    <t>182.0</t>
-  </si>
-  <si>
-    <t>38.0</t>
-  </si>
-  <si>
-    <t>144.0</t>
-  </si>
-  <si>
-    <t>379.0</t>
-  </si>
-  <si>
-    <t>242.0</t>
-  </si>
-  <si>
-    <t>1480.0</t>
-  </si>
-  <si>
-    <t>5937.0</t>
-  </si>
-  <si>
-    <t>5961.0</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>228.0</t>
-  </si>
-  <si>
-    <t>90.0</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>65.0</t>
-  </si>
-  <si>
-    <t>260.0</t>
-  </si>
-  <si>
-    <t>115.0</t>
-  </si>
-  <si>
-    <t>72.0</t>
-  </si>
-  <si>
-    <t>2055.0</t>
-  </si>
-  <si>
-    <t>3435.0</t>
-  </si>
-  <si>
-    <t>2935.0</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>139.0</t>
-  </si>
-  <si>
-    <t>89.0</t>
-  </si>
-  <si>
-    <t>324.0</t>
-  </si>
-  <si>
-    <t>125.0</t>
-  </si>
-  <si>
-    <t>1563.0</t>
-  </si>
-  <si>
-    <t>3872.0</t>
-  </si>
-  <si>
-    <t>3455.0</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>55.0</t>
-  </si>
-  <si>
-    <t>37.0</t>
-  </si>
-  <si>
-    <t>206.0</t>
-  </si>
-  <si>
-    <t>270.0</t>
-  </si>
-  <si>
-    <t>217.0</t>
-  </si>
-  <si>
-    <t>409.0</t>
-  </si>
-  <si>
-    <t>309.0</t>
-  </si>
-  <si>
-    <t>85.0</t>
-  </si>
-  <si>
-    <t>1973.0</t>
-  </si>
-  <si>
-    <t>7372.0</t>
-  </si>
-  <si>
-    <t>8226.0</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Occitanie</t>
-  </si>
-  <si>
-    <t>45.0</t>
-  </si>
-  <si>
-    <t>237.0</t>
-  </si>
-  <si>
-    <t>263.0</t>
-  </si>
-  <si>
-    <t>192.0</t>
-  </si>
-  <si>
-    <t>312.0</t>
-  </si>
-  <si>
-    <t>2644.0</t>
-  </si>
-  <si>
-    <t>8389.0</t>
-  </si>
-  <si>
-    <t>7884.0</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Auvergne-Rhône-Alpes</t>
-  </si>
-  <si>
-    <t>61.0</t>
-  </si>
-  <si>
-    <t>27.0</t>
-  </si>
-  <si>
-    <t>126.0</t>
-  </si>
-  <si>
-    <t>239.0</t>
-  </si>
-  <si>
-    <t>51.0</t>
-  </si>
-  <si>
-    <t>188.0</t>
-  </si>
-  <si>
-    <t>369.0</t>
-  </si>
-  <si>
-    <t>314.0</t>
-  </si>
-  <si>
-    <t>2278.0</t>
-  </si>
-  <si>
-    <t>7680.0</t>
-  </si>
-  <si>
-    <t>6157.0</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>44.0</t>
-  </si>
-  <si>
-    <t>169.0</t>
-  </si>
-  <si>
-    <t>129.0</t>
-  </si>
-  <si>
-    <t>92.0</t>
-  </si>
-  <si>
-    <t>249.0</t>
-  </si>
-  <si>
-    <t>143.0</t>
-  </si>
-  <si>
-    <t>87.0</t>
-  </si>
-  <si>
-    <t>812.0</t>
-  </si>
-  <si>
-    <t>2654.0</t>
-  </si>
-  <si>
-    <t>4221.0</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>Corse</t>
-  </si>
-  <si>
-    <t>194.0</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>575.0</t>
-  </si>
-  <si>
-    <t>122.0</t>
-  </si>
-  <si>
-    <t>834.0</t>
+    <t>775.0</t>
+  </si>
+  <si>
+    <t>141.0</t>
+  </si>
+  <si>
+    <t>917.0</t>
   </si>
   <si>
     <t>1090.0</t>
@@ -1281,21 +1224,21 @@
         <v>27</v>
       </c>
       <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
         <v>28</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -1304,36 +1247,36 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
         <v>36</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>37</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -1342,42 +1285,42 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
         <v>42</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>43</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" t="s">
         <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1386,33 +1329,33 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -1421,42 +1364,42 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" t="s">
         <v>58</v>
-      </c>
-      <c r="G6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="L6" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" t="s">
-        <v>60</v>
-      </c>
-      <c r="N6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -1465,31 +1408,31 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1554,210 +1497,210 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
       <c r="D2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F2" t="s">
-        <v>174</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="K2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
       <c r="D3" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" t="s">
         <v>43</v>
       </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
       <c r="J3" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="K3" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="L3" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="M3" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
+      <c r="J4" t="s">
+        <v>170</v>
+      </c>
+      <c r="O4" t="s">
         <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F4" t="s">
-        <v>182</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" t="s">
-        <v>182</v>
-      </c>
-      <c r="O4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5" t="s">
         <v>172</v>
-      </c>
-      <c r="E5" t="s">
-        <v>173</v>
-      </c>
-      <c r="F5" t="s">
-        <v>183</v>
-      </c>
-      <c r="G5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" t="s">
-        <v>183</v>
-      </c>
-      <c r="L5" t="s">
-        <v>184</v>
       </c>
       <c r="M5" t="s">
         <v>26</v>
       </c>
       <c r="N5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
+        <v>171</v>
+      </c>
+      <c r="L6" t="s">
         <v>172</v>
-      </c>
-      <c r="E6" t="s">
-        <v>173</v>
-      </c>
-      <c r="F6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" t="s">
-        <v>183</v>
-      </c>
-      <c r="L6" t="s">
-        <v>184</v>
       </c>
       <c r="M6" t="s">
         <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1822,210 +1765,210 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E2" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="K2" t="s">
-        <v>188</v>
+        <v>71</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
       <c r="D3" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E3" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F3" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" t="s">
         <v>43</v>
       </c>
-      <c r="H3" t="s">
-        <v>190</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
       <c r="J3" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="K3" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="L3" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
+      <c r="J4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O4" t="s">
         <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F4" t="s">
-        <v>194</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" t="s">
-        <v>194</v>
-      </c>
-      <c r="O4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E5" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F5" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="L5" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="M5" t="s">
         <v>26</v>
       </c>
       <c r="N5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E6" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F6" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="L6" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="M6" t="s">
         <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2090,210 +2033,210 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>84</v>
+        <v>186</v>
       </c>
       <c r="K2" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
       <c r="D3" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="E3" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="F3" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" t="s">
         <v>43</v>
       </c>
-      <c r="H3" t="s">
-        <v>202</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
       <c r="J3" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="K3" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="L3" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="M3" t="s">
-        <v>206</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
+      <c r="J4" t="s">
+        <v>191</v>
+      </c>
+      <c r="O4" t="s">
         <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E4" t="s">
-        <v>198</v>
-      </c>
-      <c r="F4" t="s">
-        <v>207</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" t="s">
-        <v>207</v>
-      </c>
-      <c r="O4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="E5" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="F5" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="L5" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="M5" t="s">
         <v>26</v>
       </c>
       <c r="N5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="E6" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="F6" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="L6" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="M6" t="s">
         <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2358,210 +2301,210 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
       <c r="D2" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>202</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
       <c r="D3" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="E3" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="F3" t="s">
-        <v>213</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" t="s">
         <v>43</v>
       </c>
-      <c r="H3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
       <c r="J3" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="K3" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="L3" t="s">
-        <v>215</v>
+        <v>136</v>
       </c>
       <c r="M3" t="s">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
+      <c r="J4" t="s">
+        <v>199</v>
+      </c>
+      <c r="O4" t="s">
         <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>210</v>
-      </c>
-      <c r="E4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F4" t="s">
-        <v>216</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" t="s">
-        <v>216</v>
-      </c>
-      <c r="O4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="E5" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="F5" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="L5" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="M5" t="s">
         <v>26</v>
       </c>
       <c r="N5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="E6" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="F6" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="L6" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="M6" t="s">
         <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2626,210 +2569,210 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
       <c r="D2" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="E2" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="F2" t="s">
-        <v>221</v>
+        <v>165</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="K2" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
       <c r="D3" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="F3" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" t="s">
         <v>43</v>
       </c>
-      <c r="H3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
       <c r="J3" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="K3" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="L3" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="M3" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
+      <c r="J4" t="s">
+        <v>210</v>
+      </c>
+      <c r="O4" t="s">
         <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>219</v>
-      </c>
-      <c r="E4" t="s">
-        <v>220</v>
-      </c>
-      <c r="F4" t="s">
-        <v>229</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" t="s">
-        <v>229</v>
-      </c>
-      <c r="O4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="E5" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="F5" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="L5" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="M5" t="s">
-        <v>201</v>
+        <v>26</v>
       </c>
       <c r="N5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="E6" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="F6" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="L6" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="M6" t="s">
-        <v>201</v>
+        <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2894,210 +2837,210 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
       <c r="D2" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="E2" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="F2" t="s">
-        <v>176</v>
+        <v>108</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="K2" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
       <c r="D3" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="E3" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="F3" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" t="s">
         <v>43</v>
       </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
       <c r="J3" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="K3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L3" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="M3" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
+      <c r="J4" t="s">
+        <v>221</v>
+      </c>
+      <c r="O4" t="s">
         <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E4" t="s">
-        <v>233</v>
-      </c>
-      <c r="F4" t="s">
-        <v>239</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" t="s">
-        <v>239</v>
-      </c>
-      <c r="O4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="E5" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="F5" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="L5" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="M5" t="s">
         <v>26</v>
       </c>
       <c r="N5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="E6" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="F6" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="L6" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="M6" t="s">
         <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3162,210 +3105,210 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
       <c r="D2" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="E2" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="F2" t="s">
-        <v>244</v>
+        <v>165</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>227</v>
       </c>
       <c r="K2" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
       <c r="D3" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="E3" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="F3" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>204</v>
+      </c>
+      <c r="I3" t="s">
         <v>43</v>
       </c>
-      <c r="H3" t="s">
-        <v>248</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
       <c r="J3" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="K3" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="L3" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>233</v>
       </c>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
+      <c r="J4" t="s">
+        <v>234</v>
+      </c>
+      <c r="O4" t="s">
         <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>242</v>
-      </c>
-      <c r="E4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F4" t="s">
-        <v>252</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" t="s">
-        <v>252</v>
-      </c>
-      <c r="O4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="E5" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="F5" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="L5" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="M5" t="s">
         <v>26</v>
       </c>
       <c r="N5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="E6" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="F6" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="L6" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="M6" t="s">
         <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3430,210 +3373,210 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
       <c r="D2" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="E2" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="K2" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
       <c r="D3" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="E3" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="F3" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
         <v>43</v>
       </c>
-      <c r="H3" t="s">
-        <v>222</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
       <c r="J3" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="K3" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="L3" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="M3" t="s">
-        <v>263</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
+      <c r="J4" t="s">
+        <v>244</v>
+      </c>
+      <c r="O4" t="s">
         <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>255</v>
-      </c>
-      <c r="E4" t="s">
-        <v>256</v>
-      </c>
-      <c r="F4" t="s">
-        <v>264</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" t="s">
-        <v>264</v>
-      </c>
-      <c r="O4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="E5" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="F5" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="L5" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="M5" t="s">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="N5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="E6" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="F6" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="L6" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="M6" t="s">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3698,210 +3641,210 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
       <c r="D2" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="E2" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>196</v>
       </c>
       <c r="K2" t="s">
-        <v>269</v>
+        <v>71</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
       <c r="D3" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="E3" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="F3" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" t="s">
         <v>43</v>
       </c>
-      <c r="H3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
       <c r="J3" t="s">
-        <v>270</v>
+        <v>121</v>
       </c>
       <c r="K3" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="L3" t="s">
-        <v>52</v>
+        <v>251</v>
       </c>
       <c r="M3" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
+      <c r="J4" t="s">
+        <v>253</v>
+      </c>
+      <c r="O4" t="s">
         <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>267</v>
-      </c>
-      <c r="E4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F4" t="s">
-        <v>272</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" t="s">
-        <v>272</v>
-      </c>
-      <c r="O4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="E5" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="F5" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="L5" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="M5" t="s">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="N5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="E6" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="F6" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="L6" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="M6" t="s">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3975,13 +3918,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3993,45 +3936,45 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
         <v>28</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
@@ -4040,183 +3983,183 @@
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" t="s">
         <v>43</v>
       </c>
-      <c r="H4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" t="s">
-        <v>45</v>
-      </c>
       <c r="J4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="M4" t="s">
         <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
         <v>49</v>
       </c>
-      <c r="B5" t="s">
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" t="s">
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
         <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" t="s">
-        <v>76</v>
-      </c>
-      <c r="O5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -4290,19 +4233,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -4311,227 +4254,227 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
         <v>28</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" t="s">
-        <v>84</v>
-      </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" t="s">
         <v>88</v>
       </c>
-      <c r="G4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="M4" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" t="s">
         <v>49</v>
       </c>
-      <c r="B5" t="s">
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" t="s">
+      <c r="J5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O5" t="s">
         <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" t="s">
-        <v>92</v>
-      </c>
-      <c r="O5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -4605,248 +4548,248 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
         <v>28</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K3" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" t="s">
         <v>43</v>
       </c>
-      <c r="H4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I4" t="s">
-        <v>45</v>
-      </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="K4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L4" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
         <v>49</v>
       </c>
-      <c r="B5" t="s">
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" t="s">
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" t="s">
         <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="L6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="M6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="L7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="M7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="N7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -4920,239 +4863,239 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
         <v>28</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
         <v>112</v>
       </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I3" t="s">
-        <v>117</v>
-      </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" t="s">
         <v>43</v>
       </c>
-      <c r="H4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I4" t="s">
-        <v>45</v>
-      </c>
       <c r="J4" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="K4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L4" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="M4" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" t="s">
         <v>49</v>
       </c>
-      <c r="B5" t="s">
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" t="s">
+      <c r="J5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O5" t="s">
         <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J7" t="s">
         <v>22</v>
       </c>
       <c r="L7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -5217,210 +5160,210 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" t="s">
         <v>122</v>
       </c>
-      <c r="F3" t="s">
-        <v>126</v>
-      </c>
       <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" t="s">
         <v>43</v>
       </c>
-      <c r="H3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
       <c r="J3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M3" t="s">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
+      <c r="J4" t="s">
+        <v>126</v>
+      </c>
+      <c r="O4" t="s">
         <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" t="s">
-        <v>132</v>
-      </c>
-      <c r="O4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="L5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="M5" t="s">
         <v>26</v>
       </c>
       <c r="N5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="L6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="M6" t="s">
         <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -5485,210 +5428,210 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="K2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
       <c r="D3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" t="s">
         <v>135</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
         <v>136</v>
       </c>
-      <c r="F3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" t="s">
-        <v>140</v>
-      </c>
       <c r="K3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="M3" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
+      <c r="J4" t="s">
+        <v>138</v>
+      </c>
+      <c r="O4" t="s">
         <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" t="s">
-        <v>144</v>
-      </c>
-      <c r="O4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="L5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="M5" t="s">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="N5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="L6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="M6" t="s">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -5753,210 +5696,210 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="K2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K3" t="s">
+        <v>147</v>
+      </c>
+      <c r="L3" t="s">
         <v>148</v>
       </c>
-      <c r="E3" t="s">
+      <c r="M3" t="s">
         <v>149</v>
       </c>
-      <c r="F3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" t="s">
-        <v>153</v>
-      </c>
-      <c r="K3" t="s">
-        <v>154</v>
-      </c>
-      <c r="L3" t="s">
-        <v>155</v>
-      </c>
-      <c r="M3" t="s">
-        <v>131</v>
-      </c>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
+      <c r="J4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O4" t="s">
         <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F4" t="s">
-        <v>156</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" t="s">
-        <v>156</v>
-      </c>
-      <c r="O4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="M5" t="s">
-        <v>159</v>
+        <v>26</v>
       </c>
       <c r="N5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E6" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="M6" t="s">
-        <v>159</v>
+        <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -6021,210 +5964,210 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F3" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s">
         <v>43</v>
       </c>
-      <c r="H3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
       <c r="J3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="K3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="L3" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="M3" t="s">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
+      <c r="J4" t="s">
+        <v>160</v>
+      </c>
+      <c r="O4" t="s">
         <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F4" t="s">
-        <v>169</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" t="s">
-        <v>169</v>
-      </c>
-      <c r="O4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" t="s">
         <v>161</v>
       </c>
-      <c r="F5" t="s">
-        <v>170</v>
-      </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="L5" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="M5" t="s">
         <v>26</v>
       </c>
       <c r="N5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" t="s">
         <v>161</v>
       </c>
-      <c r="F6" t="s">
-        <v>170</v>
-      </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="L6" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="M6" t="s">
         <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/services-publics-et-territoires/regions/barometre-resultats-services-publics-et-territoires-regions-synthese.xlsx
+++ b/secteur-action-publique/services-publics-et-territoires/regions/barometre-resultats-services-publics-et-territoires-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="262">
   <si>
     <t>mesure</t>
   </si>
@@ -165,6 +165,9 @@
     <t>2020-01-31</t>
   </si>
   <si>
+    <t>26.0</t>
+  </si>
+  <si>
     <t>labellisations</t>
   </si>
   <si>
@@ -195,7 +198,7 @@
     <t>nb-logement-accompagnement</t>
   </si>
   <si>
-    <t>377.0</t>
+    <t>380.0</t>
   </si>
   <si>
     <t>2019-12-31</t>
@@ -249,16 +252,22 @@
     <t>300.0</t>
   </si>
   <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>92.0</t>
+  </si>
+  <si>
     <t>43.0</t>
   </si>
   <si>
-    <t>460.0</t>
+    <t>474.0</t>
   </si>
   <si>
     <t>1160.0</t>
   </si>
   <si>
-    <t>40.0</t>
+    <t>41.0</t>
   </si>
   <si>
     <t>03</t>
@@ -282,9 +291,6 @@
     <t>9.0</t>
   </si>
   <si>
-    <t>41.0</t>
-  </si>
-  <si>
     <t>456.0</t>
   </si>
   <si>
@@ -300,6 +306,9 @@
     <t>2200.0</t>
   </si>
   <si>
+    <t>21.0</t>
+  </si>
+  <si>
     <t>120.0</t>
   </si>
   <si>
@@ -342,7 +351,7 @@
     <t>833.0</t>
   </si>
   <si>
-    <t>287.0</t>
+    <t>286.0</t>
   </si>
   <si>
     <t>2032.0</t>
@@ -381,7 +390,7 @@
     <t>500.0</t>
   </si>
   <si>
-    <t>21.0</t>
+    <t>83.0</t>
   </si>
   <si>
     <t>11</t>
@@ -402,19 +411,16 @@
     <t>163.0</t>
   </si>
   <si>
-    <t>26.0</t>
-  </si>
-  <si>
     <t>137.0</t>
   </si>
   <si>
     <t>527.0</t>
   </si>
   <si>
-    <t>380.0</t>
-  </si>
-  <si>
-    <t>8400.0</t>
+    <t>145.0</t>
+  </si>
+  <si>
+    <t>9448.0</t>
   </si>
   <si>
     <t>6164.0</t>
@@ -447,10 +453,13 @@
     <t>576.0</t>
   </si>
   <si>
+    <t>138.0</t>
+  </si>
+  <si>
     <t>1163.0</t>
   </si>
   <si>
-    <t>4295.0</t>
+    <t>3786.0</t>
   </si>
   <si>
     <t>3225.0</t>
@@ -468,55 +477,61 @@
     <t>350.0</t>
   </si>
   <si>
-    <t>211.0</t>
-  </si>
-  <si>
-    <t>182.0</t>
-  </si>
-  <si>
-    <t>628.0</t>
-  </si>
-  <si>
     <t>212.0</t>
   </si>
   <si>
+    <t>183.0</t>
+  </si>
+  <si>
+    <t>631.0</t>
+  </si>
+  <si>
+    <t>208.0</t>
+  </si>
+  <si>
+    <t>1004.0</t>
+  </si>
+  <si>
+    <t>4465.0</t>
+  </si>
+  <si>
+    <t>4631.0</t>
+  </si>
+  <si>
+    <t>96.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>250.0</t>
+  </si>
+  <si>
+    <t>159.0</t>
+  </si>
+  <si>
+    <t>116.0</t>
+  </si>
+  <si>
+    <t>270.0</t>
+  </si>
+  <si>
+    <t>160.0</t>
+  </si>
+  <si>
     <t>99.0</t>
   </si>
   <si>
-    <t>1004.0</t>
-  </si>
-  <si>
-    <t>5074.0</t>
-  </si>
-  <si>
-    <t>4631.0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>250.0</t>
-  </si>
-  <si>
-    <t>159.0</t>
-  </si>
-  <si>
-    <t>116.0</t>
-  </si>
-  <si>
-    <t>270.0</t>
-  </si>
-  <si>
     <t>2083.0</t>
   </si>
   <si>
-    <t>5572.0</t>
+    <t>3973.0</t>
   </si>
   <si>
     <t>3169.0</t>
@@ -543,10 +558,13 @@
     <t>494.0</t>
   </si>
   <si>
+    <t>179.0</t>
+  </si>
+  <si>
     <t>1213.0</t>
   </si>
   <si>
-    <t>9190.0</t>
+    <t>9172.0</t>
   </si>
   <si>
     <t>7920.0</t>
@@ -561,79 +579,85 @@
     <t>84.0</t>
   </si>
   <si>
-    <t>219.0</t>
-  </si>
-  <si>
-    <t>181.0</t>
+    <t>221.0</t>
+  </si>
+  <si>
+    <t>482.0</t>
+  </si>
+  <si>
+    <t>242.0</t>
+  </si>
+  <si>
+    <t>90.0</t>
+  </si>
+  <si>
+    <t>1859.0</t>
+  </si>
+  <si>
+    <t>6653.0</t>
+  </si>
+  <si>
+    <t>5961.0</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>58.0</t>
+  </si>
+  <si>
+    <t>322.0</t>
+  </si>
+  <si>
+    <t>119.0</t>
+  </si>
+  <si>
+    <t>94.0</t>
+  </si>
+  <si>
+    <t>376.0</t>
+  </si>
+  <si>
+    <t>115.0</t>
+  </si>
+  <si>
+    <t>2620.0</t>
+  </si>
+  <si>
+    <t>3761.0</t>
+  </si>
+  <si>
+    <t>2935.0</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>48.0</t>
+  </si>
+  <si>
+    <t>167.0</t>
   </si>
   <si>
     <t>476.0</t>
   </si>
   <si>
-    <t>221.0</t>
-  </si>
-  <si>
-    <t>1859.0</t>
-  </si>
-  <si>
-    <t>7848.0</t>
-  </si>
-  <si>
-    <t>5961.0</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>58.0</t>
-  </si>
-  <si>
-    <t>322.0</t>
-  </si>
-  <si>
-    <t>119.0</t>
-  </si>
-  <si>
-    <t>94.0</t>
-  </si>
-  <si>
-    <t>376.0</t>
-  </si>
-  <si>
-    <t>2620.0</t>
-  </si>
-  <si>
-    <t>6283.0</t>
-  </si>
-  <si>
-    <t>2935.0</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>48.0</t>
-  </si>
-  <si>
-    <t>167.0</t>
-  </si>
-  <si>
-    <t>471.0</t>
+    <t>125.0</t>
   </si>
   <si>
     <t>2151.0</t>
   </si>
   <si>
-    <t>6537.0</t>
+    <t>4720.0</t>
   </si>
   <si>
     <t>3455.0</t>
@@ -651,22 +675,19 @@
     <t>283.0</t>
   </si>
   <si>
-    <t>321.0</t>
-  </si>
-  <si>
-    <t>268.0</t>
-  </si>
-  <si>
-    <t>506.0</t>
-  </si>
-  <si>
     <t>323.0</t>
   </si>
   <si>
+    <t>509.0</t>
+  </si>
+  <si>
+    <t>317.0</t>
+  </si>
+  <si>
     <t>2537.0</t>
   </si>
   <si>
-    <t>10060.0</t>
+    <t>8689.0</t>
   </si>
   <si>
     <t>8226.0</t>
@@ -684,22 +705,19 @@
     <t>311.0</t>
   </si>
   <si>
-    <t>309.0</t>
-  </si>
-  <si>
-    <t>238.0</t>
-  </si>
-  <si>
-    <t>335.0</t>
-  </si>
-  <si>
     <t>312.0</t>
   </si>
   <si>
+    <t>241.0</t>
+  </si>
+  <si>
+    <t>339.0</t>
+  </si>
+  <si>
     <t>3366.0</t>
   </si>
   <si>
-    <t>11948.0</t>
+    <t>9811.0</t>
   </si>
   <si>
     <t>7884.0</t>
@@ -720,25 +738,22 @@
     <t>156.0</t>
   </si>
   <si>
-    <t>299.0</t>
-  </si>
-  <si>
-    <t>248.0</t>
-  </si>
-  <si>
-    <t>486.0</t>
-  </si>
-  <si>
     <t>303.0</t>
   </si>
   <si>
-    <t>98.0</t>
+    <t>252.0</t>
+  </si>
+  <si>
+    <t>315.0</t>
+  </si>
+  <si>
+    <t>95.0</t>
   </si>
   <si>
     <t>3003.0</t>
   </si>
   <si>
-    <t>10532.0</t>
+    <t>9087.0</t>
   </si>
   <si>
     <t>6157.0</t>
@@ -765,18 +780,18 @@
     <t>297.0</t>
   </si>
   <si>
+    <t>143.0</t>
+  </si>
+  <si>
     <t>977.0</t>
   </si>
   <si>
-    <t>3717.0</t>
+    <t>3039.0</t>
   </si>
   <si>
     <t>4221.0</t>
   </si>
   <si>
-    <t>88.0</t>
-  </si>
-  <si>
     <t>94</t>
   </si>
   <si>
@@ -795,10 +810,13 @@
     <t>141.0</t>
   </si>
   <si>
-    <t>917.0</t>
+    <t>880.0</t>
   </si>
   <si>
     <t>1090.0</t>
+  </si>
+  <si>
+    <t>81.0</t>
   </si>
 </sst>
 </file>
@@ -1300,7 +1318,7 @@
         <v>41</v>
       </c>
       <c r="L4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M4" t="s">
         <v>26</v>
@@ -1309,18 +1327,18 @@
         <v>21</v>
       </c>
       <c r="O4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1329,33 +1347,33 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
         <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -1364,7 +1382,7 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -1373,33 +1391,33 @@
         <v>42</v>
       </c>
       <c r="I6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" t="s">
         <v>55</v>
       </c>
-      <c r="J6" t="s">
-        <v>54</v>
-      </c>
       <c r="L6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N6" t="s">
         <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -1408,7 +1426,7 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -1417,22 +1435,22 @@
         <v>42</v>
       </c>
       <c r="I7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" t="s">
         <v>55</v>
       </c>
-      <c r="J7" t="s">
-        <v>54</v>
-      </c>
       <c r="L7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N7" t="s">
         <v>21</v>
       </c>
       <c r="O7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1506,28 +1524,28 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="O2" t="s">
         <v>37</v>
@@ -1544,31 +1562,31 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I3" t="s">
         <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K3" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="M3" t="s">
         <v>26</v>
@@ -1577,62 +1595,62 @@
         <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E4" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F4" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
         <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F5" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -1641,13 +1659,13 @@
         <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="L5" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M5" t="s">
         <v>26</v>
@@ -1656,27 +1674,27 @@
         <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E6" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F6" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -1685,13 +1703,13 @@
         <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="L6" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M6" t="s">
         <v>26</v>
@@ -1700,7 +1718,7 @@
         <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1774,28 +1792,28 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O2" t="s">
         <v>37</v>
@@ -1812,95 +1830,95 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F3" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I3" t="s">
         <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="K3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M3" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="N3" t="s">
         <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F4" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
         <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E5" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F5" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -1909,13 +1927,13 @@
         <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="L5" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M5" t="s">
         <v>26</v>
@@ -1924,27 +1942,27 @@
         <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E6" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F6" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -1953,13 +1971,13 @@
         <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="L6" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M6" t="s">
         <v>26</v>
@@ -1968,7 +1986,7 @@
         <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2042,28 +2060,28 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="K2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="O2" t="s">
         <v>37</v>
@@ -2080,31 +2098,31 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F3" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I3" t="s">
         <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="K3" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="L3" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="M3" t="s">
         <v>26</v>
@@ -2113,62 +2131,62 @@
         <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E4" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F4" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
         <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E5" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F5" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -2177,13 +2195,13 @@
         <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="L5" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="M5" t="s">
         <v>26</v>
@@ -2192,27 +2210,27 @@
         <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F6" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -2221,13 +2239,13 @@
         <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="L6" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="M6" t="s">
         <v>26</v>
@@ -2236,7 +2254,7 @@
         <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2310,28 +2328,28 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="O2" t="s">
         <v>37</v>
@@ -2348,95 +2366,95 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="I3" t="s">
         <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="L3" t="s">
-        <v>136</v>
+        <v>206</v>
       </c>
       <c r="M3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N3" t="s">
         <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F4" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
         <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E5" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F5" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -2445,13 +2463,13 @@
         <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="L5" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="M5" t="s">
         <v>26</v>
@@ -2460,27 +2478,27 @@
         <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E6" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F6" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -2489,13 +2507,13 @@
         <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="L6" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="M6" t="s">
         <v>26</v>
@@ -2504,7 +2522,7 @@
         <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2578,28 +2596,28 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="K2" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="O2" t="s">
         <v>37</v>
@@ -2616,95 +2634,95 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E3" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F3" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I3" t="s">
         <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="K3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="L3" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="M3" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
         <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F4" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
         <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E5" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -2713,13 +2731,13 @@
         <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="L5" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="M5" t="s">
         <v>26</v>
@@ -2728,27 +2746,27 @@
         <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E6" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F6" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -2757,13 +2775,13 @@
         <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="L6" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="M6" t="s">
         <v>26</v>
@@ -2772,7 +2790,7 @@
         <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2846,28 +2864,28 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E2" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="K2" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="O2" t="s">
         <v>37</v>
@@ -2884,95 +2902,95 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E3" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="F3" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I3" t="s">
         <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="K3" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="L3" t="s">
-        <v>220</v>
+        <v>72</v>
       </c>
       <c r="M3" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
         <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E4" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="F4" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
         <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E5" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="F5" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -2981,13 +2999,13 @@
         <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="L5" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="M5" t="s">
         <v>26</v>
@@ -2996,27 +3014,27 @@
         <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E6" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="F6" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -3025,13 +3043,13 @@
         <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="L6" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="M6" t="s">
         <v>26</v>
@@ -3040,7 +3058,7 @@
         <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3114,28 +3132,28 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E2" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="K2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="O2" t="s">
         <v>37</v>
@@ -3152,95 +3170,95 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E3" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F3" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="I3" t="s">
         <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="K3" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="L3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M3" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="N3" t="s">
         <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E4" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F4" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
         <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E5" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F5" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -3249,13 +3267,13 @@
         <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L5" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M5" t="s">
         <v>26</v>
@@ -3264,27 +3282,27 @@
         <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E6" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F6" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -3293,13 +3311,13 @@
         <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L6" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M6" t="s">
         <v>26</v>
@@ -3308,7 +3326,7 @@
         <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3382,28 +3400,28 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="K2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="O2" t="s">
         <v>37</v>
@@ -3420,13 +3438,13 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E3" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F3" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
@@ -3438,13 +3456,13 @@
         <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="K3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="L3" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="M3" t="s">
         <v>26</v>
@@ -3453,62 +3471,62 @@
         <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E4" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F4" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
         <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E5" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F5" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -3517,42 +3535,42 @@
         <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="L5" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="M5" t="s">
-        <v>247</v>
+        <v>27</v>
       </c>
       <c r="N5" t="s">
         <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E6" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F6" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -3561,22 +3579,22 @@
         <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="L6" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="M6" t="s">
-        <v>247</v>
+        <v>27</v>
       </c>
       <c r="N6" t="s">
         <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3650,28 +3668,28 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="K2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O2" t="s">
         <v>37</v>
@@ -3688,31 +3706,31 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F3" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I3" t="s">
         <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K3" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="L3" t="s">
-        <v>251</v>
+        <v>49</v>
       </c>
       <c r="M3" t="s">
         <v>26</v>
@@ -3721,62 +3739,62 @@
         <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E4" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
         <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E5" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -3785,42 +3803,42 @@
         <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="M5" t="s">
-        <v>175</v>
+        <v>261</v>
       </c>
       <c r="N5" t="s">
         <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E6" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F6" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -3829,22 +3847,22 @@
         <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L6" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="M6" t="s">
-        <v>175</v>
+        <v>261</v>
       </c>
       <c r="N6" t="s">
         <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3918,13 +3936,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3936,16 +3954,16 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N2" t="s">
         <v>21</v>
@@ -3965,10 +3983,10 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -3983,10 +4001,10 @@
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -4003,95 +4021,95 @@
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I4" t="s">
         <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M4" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="N4" t="s">
         <v>21</v>
       </c>
       <c r="O4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
         <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -4100,42 +4118,42 @@
         <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N6" t="s">
         <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -4144,22 +4162,22 @@
         <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N7" t="s">
         <v>21</v>
       </c>
       <c r="O7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -4233,19 +4251,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -4254,13 +4272,13 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="N2" t="s">
         <v>21</v>
@@ -4280,10 +4298,10 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -4292,16 +4310,16 @@
         <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -4318,31 +4336,31 @@
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I4" t="s">
         <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M4" t="s">
         <v>26</v>
@@ -4351,62 +4369,62 @@
         <v>21</v>
       </c>
       <c r="O4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
         <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -4415,42 +4433,42 @@
         <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M6" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="N6" t="s">
         <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -4459,22 +4477,22 @@
         <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M7" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s">
         <v>21</v>
       </c>
       <c r="O7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -4548,28 +4566,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -4595,25 +4613,25 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K3" t="s">
         <v>27</v>
@@ -4633,31 +4651,31 @@
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I4" t="s">
         <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L4" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="M4" t="s">
         <v>26</v>
@@ -4666,62 +4684,62 @@
         <v>21</v>
       </c>
       <c r="O4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
         <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -4730,42 +4748,42 @@
         <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="N6" t="s">
         <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -4774,22 +4792,22 @@
         <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="N7" t="s">
         <v>21</v>
       </c>
       <c r="O7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -4863,34 +4881,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N2" t="s">
         <v>21</v>
@@ -4910,10 +4928,10 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -4925,7 +4943,7 @@
         <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J3" t="s">
         <v>42</v>
@@ -4945,92 +4963,92 @@
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I4" t="s">
         <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="M4" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="N4" t="s">
         <v>21</v>
       </c>
       <c r="O4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F5" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
         <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
@@ -5042,7 +5060,7 @@
         <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
@@ -5054,24 +5072,24 @@
         <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
@@ -5083,7 +5101,7 @@
         <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s">
         <v>22</v>
@@ -5095,7 +5113,7 @@
         <v>21</v>
       </c>
       <c r="O7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -5169,25 +5187,25 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K2" t="s">
         <v>32</v>
@@ -5207,31 +5225,31 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
         <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="M3" t="s">
         <v>26</v>
@@ -5240,62 +5258,62 @@
         <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F4" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
         <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -5304,13 +5322,13 @@
         <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M5" t="s">
         <v>26</v>
@@ -5319,27 +5337,27 @@
         <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -5348,13 +5366,13 @@
         <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M6" t="s">
         <v>26</v>
@@ -5363,7 +5381,7 @@
         <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -5437,28 +5455,28 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O2" t="s">
         <v>37</v>
@@ -5475,31 +5493,31 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="I3" t="s">
         <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M3" t="s">
         <v>26</v>
@@ -5508,62 +5526,62 @@
         <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
         <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -5572,13 +5590,13 @@
         <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M5" t="s">
         <v>26</v>
@@ -5587,27 +5605,27 @@
         <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -5616,13 +5634,13 @@
         <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M6" t="s">
         <v>26</v>
@@ -5631,7 +5649,7 @@
         <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -5705,28 +5723,28 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="O2" t="s">
         <v>37</v>
@@ -5743,13 +5761,13 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
@@ -5761,77 +5779,77 @@
         <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M3" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
         <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
         <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -5840,42 +5858,42 @@
         <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M5" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="N5" t="s">
         <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -5884,22 +5902,22 @@
         <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M6" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="N6" t="s">
         <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -5973,19 +5991,19 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -5994,7 +6012,7 @@
         <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="O2" t="s">
         <v>37</v>
@@ -6011,95 +6029,95 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s">
         <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="N3" t="s">
         <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F4" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
         <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F5" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -6108,13 +6126,13 @@
         <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="L5" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="M5" t="s">
         <v>26</v>
@@ -6123,27 +6141,27 @@
         <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -6152,13 +6170,13 @@
         <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="L6" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="M6" t="s">
         <v>26</v>
@@ -6167,7 +6185,7 @@
         <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
